--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131254.3550174877</v>
+        <v>130505.9535065673</v>
       </c>
     </row>
     <row r="7">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>260.8850331288904</v>
+        <v>260.8850331288905</v>
       </c>
       <c r="C11" t="n">
-        <v>248.8963500865721</v>
+        <v>248.8963500865722</v>
       </c>
       <c r="D11" t="n">
-        <v>239.8776541311001</v>
+        <v>239.8776541311002</v>
       </c>
       <c r="E11" t="n">
-        <v>261.6197917010056</v>
+        <v>261.6197917010057</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>280.7916077889829</v>
       </c>
       <c r="G11" t="n">
-        <v>64.59531064177915</v>
+        <v>282.1305160374088</v>
       </c>
       <c r="H11" t="n">
-        <v>194.1880049094285</v>
+        <v>25.32917884137643</v>
       </c>
       <c r="I11" t="n">
-        <v>18.9569054414007</v>
+        <v>18.95690544140081</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>42.59464412049036</v>
       </c>
       <c r="T11" t="n">
-        <v>90.2954764488676</v>
+        <v>90.29547644886773</v>
       </c>
       <c r="U11" t="n">
-        <v>123.0708631572776</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.991768079773</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,19 +1449,19 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>126.6911334988761</v>
       </c>
       <c r="D12" t="n">
-        <v>16.3734263620409</v>
+        <v>8.232179645741581</v>
       </c>
       <c r="E12" t="n">
-        <v>16.3396588497489</v>
+        <v>16.33965884974901</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>4.12878907567594</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.44188278383303</v>
       </c>
       <c r="S12" t="n">
-        <v>16.14651652925639</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T12" t="n">
         <v>185.5164475248238</v>
@@ -1515,7 +1515,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>61.37804209296837</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.50174400358745</v>
+        <v>52.50174400358756</v>
       </c>
       <c r="C13" t="n">
-        <v>38.70173884898793</v>
+        <v>38.70173884898804</v>
       </c>
       <c r="D13" t="n">
-        <v>22.32310324656632</v>
+        <v>22.32310324656643</v>
       </c>
       <c r="E13" t="n">
-        <v>21.27085310234577</v>
+        <v>21.27085310234588</v>
       </c>
       <c r="F13" t="n">
-        <v>21.73777743053208</v>
+        <v>21.73777743053219</v>
       </c>
       <c r="G13" t="n">
-        <v>37.74587087490171</v>
+        <v>37.74587087490183</v>
       </c>
       <c r="H13" t="n">
-        <v>26.19044893016413</v>
+        <v>26.19044893016424</v>
       </c>
       <c r="I13" t="n">
-        <v>5.52527488445519</v>
+        <v>5.525274884455303</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.82076999659709</v>
+        <v>6.820769996597203</v>
       </c>
       <c r="S13" t="n">
-        <v>77.70832139488061</v>
+        <v>77.70832139488073</v>
       </c>
       <c r="T13" t="n">
-        <v>100.4899439296225</v>
+        <v>100.4899439296226</v>
       </c>
       <c r="U13" t="n">
-        <v>155.0857237976437</v>
+        <v>155.0857237976439</v>
       </c>
       <c r="V13" t="n">
-        <v>128.909880403213</v>
+        <v>128.9098804032132</v>
       </c>
       <c r="W13" t="n">
-        <v>154.0767664738263</v>
+        <v>154.0767664738264</v>
       </c>
       <c r="X13" t="n">
-        <v>99.72186846962941</v>
+        <v>99.72186846962953</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.5967362256971</v>
+        <v>90.59673622569721</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>260.8850331288905</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>239.8776541311</v>
+        <v>239.8776541311002</v>
       </c>
       <c r="E14" t="n">
-        <v>261.6197917010056</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>280.7916077889827</v>
+        <v>280.7916077889829</v>
       </c>
       <c r="G14" t="n">
-        <v>282.1305160374086</v>
+        <v>282.1305160374088</v>
       </c>
       <c r="H14" t="n">
-        <v>194.1880049094284</v>
+        <v>194.1880049094286</v>
       </c>
       <c r="I14" t="n">
-        <v>18.95690544140064</v>
+        <v>18.95690544140081</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>42.59464412049018</v>
+        <v>42.59464412049036</v>
       </c>
       <c r="T14" t="n">
-        <v>90.29547644886755</v>
+        <v>90.29547644886773</v>
       </c>
       <c r="U14" t="n">
-        <v>123.0708631572775</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>204.3914103690696</v>
       </c>
       <c r="W14" t="n">
-        <v>217.8516939901313</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>137.265905350456</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.60717735949964</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>8.232179645741581</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>16.33965884974901</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>4.12878907567594</v>
       </c>
       <c r="G15" t="n">
         <v>127.1232045289026</v>
       </c>
       <c r="H15" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>56.7494185219329</v>
@@ -1734,25 +1734,25 @@
         <v>39.44188278383303</v>
       </c>
       <c r="S15" t="n">
-        <v>145.364587523205</v>
+        <v>57.31453293373929</v>
       </c>
       <c r="T15" t="n">
-        <v>185.5164475248238</v>
+        <v>56.29837653087532</v>
       </c>
       <c r="U15" t="n">
-        <v>161.5897716958249</v>
+        <v>216.2889227376699</v>
       </c>
       <c r="V15" t="n">
-        <v>96.89359533220073</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>109.6846390850744</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>66.71974724703472</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>61.37804209296831</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.50174400358739</v>
+        <v>52.50174400358756</v>
       </c>
       <c r="C16" t="n">
-        <v>38.70173884898787</v>
+        <v>38.70173884898804</v>
       </c>
       <c r="D16" t="n">
-        <v>22.32310324656626</v>
+        <v>22.32310324656643</v>
       </c>
       <c r="E16" t="n">
-        <v>21.27085310234571</v>
+        <v>21.27085310234588</v>
       </c>
       <c r="F16" t="n">
-        <v>21.73777743053202</v>
+        <v>21.73777743053219</v>
       </c>
       <c r="G16" t="n">
-        <v>37.74587087490166</v>
+        <v>37.74587087490183</v>
       </c>
       <c r="H16" t="n">
-        <v>26.19044893016407</v>
+        <v>26.19044893016424</v>
       </c>
       <c r="I16" t="n">
-        <v>5.525274884455133</v>
+        <v>5.525274884455303</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.820769996597033</v>
+        <v>6.820769996597203</v>
       </c>
       <c r="S16" t="n">
-        <v>77.70832139488056</v>
+        <v>77.70832139488073</v>
       </c>
       <c r="T16" t="n">
-        <v>100.4899439296225</v>
+        <v>100.4899439296226</v>
       </c>
       <c r="U16" t="n">
-        <v>155.0857237976437</v>
+        <v>155.0857237976439</v>
       </c>
       <c r="V16" t="n">
-        <v>128.909880403213</v>
+        <v>128.9098804032132</v>
       </c>
       <c r="W16" t="n">
-        <v>154.0767664738262</v>
+        <v>154.0767664738264</v>
       </c>
       <c r="X16" t="n">
-        <v>99.72186846962936</v>
+        <v>99.72186846962953</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.59673622569704</v>
+        <v>90.59673622569721</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170.5895566800228</v>
+        <v>170.589556680023</v>
       </c>
       <c r="C17" t="n">
         <v>158.6008736377045</v>
@@ -1856,10 +1856,10 @@
         <v>190.4961313401152</v>
       </c>
       <c r="G17" t="n">
-        <v>191.8350395885411</v>
+        <v>191.835039588541</v>
       </c>
       <c r="H17" t="n">
-        <v>103.8925284605609</v>
+        <v>103.8925284605608</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>32.77538670841</v>
+        <v>32.77538670840997</v>
       </c>
       <c r="V17" t="n">
         <v>114.0959339202019</v>
@@ -1923,13 +1923,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.44188278383303</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>21.85175867992466</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>185.5164475248238</v>
+        <v>94.83093216113501</v>
       </c>
       <c r="U18" t="n">
         <v>216.2889227376699</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9639418688503</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>206.9263923888292</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>10.19446748075492</v>
+        <v>10.19446748075489</v>
       </c>
       <c r="U19" t="n">
-        <v>64.79024734877613</v>
+        <v>284.3037947915923</v>
       </c>
       <c r="V19" t="n">
-        <v>38.61440395434545</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>63.78129002495871</v>
+        <v>63.78129002495868</v>
       </c>
       <c r="X19" t="n">
-        <v>193.8588867714894</v>
+        <v>128.7221261435366</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.3012597768295109</v>
+        <v>0.3012597768294825</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2081,13 @@
         <v>170.5895566800228</v>
       </c>
       <c r="C20" t="n">
-        <v>158.6008736377046</v>
+        <v>158.6008736377045</v>
       </c>
       <c r="D20" t="n">
         <v>149.5821776822325</v>
       </c>
       <c r="E20" t="n">
-        <v>171.3243152521381</v>
+        <v>171.324315252138</v>
       </c>
       <c r="F20" t="n">
         <v>190.4961313401152</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>32.77538670841002</v>
+        <v>32.77538670841</v>
       </c>
       <c r="V20" t="n">
         <v>114.0959339202019</v>
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
         <v>127.1232045289026</v>
       </c>
       <c r="H21" t="n">
-        <v>58.83407536768028</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>56.7494185219329</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.44188278383303</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2889227376699</v>
+        <v>92.15853069037226</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.99592736743691</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>155.4085199241127</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>136.0388409905457</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>206.9263923888292</v>
       </c>
       <c r="T22" t="n">
-        <v>10.19446748075495</v>
+        <v>10.19446748075492</v>
       </c>
       <c r="U22" t="n">
-        <v>64.79024734877616</v>
+        <v>64.79024734877613</v>
       </c>
       <c r="V22" t="n">
-        <v>38.61440395434548</v>
+        <v>38.61440395434545</v>
       </c>
       <c r="W22" t="n">
-        <v>63.78129002495874</v>
+        <v>63.78129002495871</v>
       </c>
       <c r="X22" t="n">
-        <v>9.426392020761853</v>
+        <v>9.426392020761824</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.3012597768295393</v>
+        <v>14.5693614747586</v>
       </c>
     </row>
     <row r="23">
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.5895566800227</v>
+        <v>170.5895566800228</v>
       </c>
       <c r="C23" t="n">
         <v>158.6008736377045</v>
       </c>
       <c r="D23" t="n">
-        <v>149.5821776822324</v>
+        <v>149.5821776822325</v>
       </c>
       <c r="E23" t="n">
         <v>171.324315252138</v>
       </c>
       <c r="F23" t="n">
-        <v>190.4961313401151</v>
+        <v>190.4961313401152</v>
       </c>
       <c r="G23" t="n">
         <v>191.835039588541</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>32.77538670840994</v>
+        <v>32.77538670840997</v>
       </c>
       <c r="V23" t="n">
-        <v>114.0959339202018</v>
+        <v>114.0959339202019</v>
       </c>
       <c r="W23" t="n">
-        <v>139.3960333981587</v>
+        <v>139.3960333981588</v>
       </c>
       <c r="X23" t="n">
         <v>158.6962916309054</v>
       </c>
       <c r="Y23" t="n">
-        <v>170.0928894271041</v>
+        <v>170.0928894271042</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
         <v>137.45025063969</v>
@@ -2406,16 +2406,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>12.90149320200216</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>56.7494185219329</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>145.364587523205</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>185.5164475248238</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2889227376699</v>
+        <v>165.562125055106</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>103.468657555802</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.7080149235711</v>
+        <v>10.19446748075489</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3037947915923</v>
+        <v>64.79024734877611</v>
       </c>
       <c r="V25" t="n">
-        <v>38.61440395434539</v>
+        <v>38.61440395434542</v>
       </c>
       <c r="W25" t="n">
-        <v>63.78129002495865</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>9.426392020761767</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.301259776829454</v>
+        <v>119.5969938996043</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>222.0346248910547</v>
       </c>
       <c r="I26" t="n">
-        <v>46.80352542302694</v>
+        <v>46.80352542302695</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.44126410211649</v>
+        <v>70.44126410211651</v>
       </c>
       <c r="T26" t="n">
         <v>118.1420964304939</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.34836398521369</v>
+        <v>80.34836398521371</v>
       </c>
       <c r="C28" t="n">
-        <v>66.54835883061418</v>
+        <v>66.54835883061419</v>
       </c>
       <c r="D28" t="n">
-        <v>50.16972322819257</v>
+        <v>50.16972322819258</v>
       </c>
       <c r="E28" t="n">
-        <v>49.11747308397202</v>
+        <v>49.11747308397203</v>
       </c>
       <c r="F28" t="n">
-        <v>49.58439741215832</v>
+        <v>49.58439741215834</v>
       </c>
       <c r="G28" t="n">
-        <v>65.59249085652795</v>
+        <v>65.59249085652796</v>
       </c>
       <c r="H28" t="n">
-        <v>54.03706891179039</v>
+        <v>54.0370689117904</v>
       </c>
       <c r="I28" t="n">
-        <v>33.37189486608145</v>
+        <v>33.37189486608146</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66738997822333</v>
+        <v>34.66738997822334</v>
       </c>
       <c r="S28" t="n">
         <v>105.5549413765069</v>
@@ -2779,7 +2779,7 @@
         <v>127.5684884512557</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.4433562073233</v>
+        <v>118.4433562073234</v>
       </c>
     </row>
     <row r="29">
@@ -3047,7 +3047,7 @@
         <v>222.0346248910547</v>
       </c>
       <c r="I32" t="n">
-        <v>46.80352542302693</v>
+        <v>46.80352542302694</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.44126410211648</v>
+        <v>70.44126410211649</v>
       </c>
       <c r="T32" t="n">
-        <v>118.1420964304939</v>
+        <v>118.1420964304938</v>
       </c>
       <c r="U32" t="n">
         <v>150.9174831389038</v>
@@ -3126,7 +3126,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I33" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S33" t="n">
         <v>145.364587523205</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.34836398521368</v>
+        <v>80.34836398521369</v>
       </c>
       <c r="C34" t="n">
-        <v>66.54835883061416</v>
+        <v>66.54835883061418</v>
       </c>
       <c r="D34" t="n">
-        <v>50.16972322819255</v>
+        <v>50.16972322819257</v>
       </c>
       <c r="E34" t="n">
-        <v>49.117473083972</v>
+        <v>49.11747308397202</v>
       </c>
       <c r="F34" t="n">
-        <v>49.58439741215831</v>
+        <v>49.58439741215832</v>
       </c>
       <c r="G34" t="n">
-        <v>65.59249085652795</v>
+        <v>65.59249085652796</v>
       </c>
       <c r="H34" t="n">
-        <v>54.03706891179036</v>
+        <v>54.03706891179038</v>
       </c>
       <c r="I34" t="n">
-        <v>33.37189486608142</v>
+        <v>33.37189486608143</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>34.66738997822333</v>
       </c>
       <c r="S34" t="n">
-        <v>105.5549413765068</v>
+        <v>105.5549413765069</v>
       </c>
       <c r="T34" t="n">
         <v>128.3365639112488</v>
@@ -3250,7 +3250,7 @@
         <v>181.9233864554525</v>
       </c>
       <c r="X34" t="n">
-        <v>127.5684884512556</v>
+        <v>127.5684884512557</v>
       </c>
       <c r="Y34" t="n">
         <v>118.4433562073233</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>224.0531522757344</v>
+        <v>224.0531522757345</v>
       </c>
       <c r="C35" t="n">
-        <v>212.0644692334162</v>
+        <v>212.0644692334163</v>
       </c>
       <c r="D35" t="n">
         <v>203.0457732779442</v>
       </c>
       <c r="E35" t="n">
-        <v>224.7879108478497</v>
+        <v>224.7879108478498</v>
       </c>
       <c r="F35" t="n">
-        <v>243.9597269358269</v>
+        <v>243.959726935827</v>
       </c>
       <c r="G35" t="n">
-        <v>245.2986351842527</v>
+        <v>245.2986351842528</v>
       </c>
       <c r="H35" t="n">
-        <v>157.3561240562725</v>
+        <v>157.3561240562726</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.762763267334321</v>
+        <v>5.762763267334407</v>
       </c>
       <c r="T35" t="n">
-        <v>53.46359559571169</v>
+        <v>53.46359559571175</v>
       </c>
       <c r="U35" t="n">
-        <v>86.23898230412166</v>
+        <v>86.23898230412175</v>
       </c>
       <c r="V35" t="n">
-        <v>167.5595295159136</v>
+        <v>167.5595295159137</v>
       </c>
       <c r="W35" t="n">
-        <v>192.8596289938705</v>
+        <v>192.8596289938706</v>
       </c>
       <c r="X35" t="n">
-        <v>212.1598872266171</v>
+        <v>212.1598872266172</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.5564850228158</v>
+        <v>223.5564850228159</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I36" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S36" t="n">
         <v>145.364587523205</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.66986315043152</v>
+        <v>15.66986315043161</v>
       </c>
       <c r="C37" t="n">
-        <v>1.869857995832007</v>
+        <v>1.869857995832092</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>28.55467130077218</v>
+        <v>0.9139900217458732</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.7433458784038</v>
+        <v>12.16115187729794</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>40.87644054172468</v>
+        <v>40.87644054172477</v>
       </c>
       <c r="T37" t="n">
-        <v>63.65806307646658</v>
+        <v>63.65806307646667</v>
       </c>
       <c r="U37" t="n">
-        <v>118.2538429444878</v>
+        <v>284.3037947915923</v>
       </c>
       <c r="V37" t="n">
-        <v>92.07799955005711</v>
+        <v>92.0779995500572</v>
       </c>
       <c r="W37" t="n">
-        <v>117.2448856206704</v>
+        <v>117.2448856206705</v>
       </c>
       <c r="X37" t="n">
-        <v>62.88998761647349</v>
+        <v>62.88998761647358</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.76485537254118</v>
+        <v>53.76485537254126</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>224.0531522757345</v>
+        <v>224.0531522757346</v>
       </c>
       <c r="C38" t="n">
         <v>212.0644692334163</v>
       </c>
       <c r="D38" t="n">
-        <v>203.0457732779442</v>
+        <v>203.0457732779443</v>
       </c>
       <c r="E38" t="n">
         <v>224.7879108478498</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>5.762763267334407</v>
+        <v>5.762763267334435</v>
       </c>
       <c r="T38" t="n">
         <v>53.46359559571178</v>
       </c>
       <c r="U38" t="n">
-        <v>86.23898230412175</v>
+        <v>86.23898230412178</v>
       </c>
       <c r="V38" t="n">
         <v>167.5595295159137</v>
@@ -3569,7 +3569,7 @@
         <v>212.1598872266172</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.5564850228159</v>
+        <v>223.556485022816</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I39" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S39" t="n">
-        <v>145.3645875232052</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T39" t="n">
-        <v>185.5164475248238</v>
+        <v>185.5164475248243</v>
       </c>
       <c r="U39" t="n">
         <v>216.2889227376699</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.66986315043161</v>
+        <v>15.66986315043164</v>
       </c>
       <c r="C40" t="n">
-        <v>1.869857995832092</v>
+        <v>1.86985799583212</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9139900217458732</v>
+        <v>0.9139900217459016</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.82707656697309</v>
+        <v>12.16115187729774</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>40.87644054172477</v>
+        <v>40.8764405417248</v>
       </c>
       <c r="T40" t="n">
-        <v>63.65806307646667</v>
+        <v>63.6580630764667</v>
       </c>
       <c r="U40" t="n">
         <v>118.2538429444879</v>
       </c>
       <c r="V40" t="n">
-        <v>92.0779995500572</v>
+        <v>92.07799955005723</v>
       </c>
       <c r="W40" t="n">
         <v>117.2448856206705</v>
       </c>
       <c r="X40" t="n">
-        <v>62.88998761647358</v>
+        <v>62.8899876164736</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.19303410548987</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0531522757345</v>
+        <v>224.0531522757346</v>
       </c>
       <c r="C41" t="n">
-        <v>212.0644692334162</v>
+        <v>212.0644692334164</v>
       </c>
       <c r="D41" t="n">
-        <v>203.0457732779442</v>
+        <v>203.0457732779444</v>
       </c>
       <c r="E41" t="n">
-        <v>224.7879108478497</v>
+        <v>224.7879108478499</v>
       </c>
       <c r="F41" t="n">
-        <v>243.9597269358269</v>
+        <v>243.9597269358271</v>
       </c>
       <c r="G41" t="n">
-        <v>245.2986351842528</v>
+        <v>245.2986351842529</v>
       </c>
       <c r="H41" t="n">
-        <v>157.3561240562726</v>
+        <v>157.3561240562727</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.762763267334343</v>
+        <v>5.76276326733452</v>
       </c>
       <c r="T41" t="n">
-        <v>53.46359559571171</v>
+        <v>53.46359559571187</v>
       </c>
       <c r="U41" t="n">
-        <v>86.23898230412169</v>
+        <v>86.23898230412186</v>
       </c>
       <c r="V41" t="n">
-        <v>167.5595295159136</v>
+        <v>167.5595295159138</v>
       </c>
       <c r="W41" t="n">
-        <v>192.8596289938705</v>
+        <v>192.8596289938707</v>
       </c>
       <c r="X41" t="n">
-        <v>212.1598872266171</v>
+        <v>212.1598872266173</v>
       </c>
       <c r="Y41" t="n">
-        <v>223.5564850228159</v>
+        <v>223.556485022816</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I42" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S42" t="n">
         <v>145.364587523205</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.66986315043155</v>
+        <v>15.66986315043172</v>
       </c>
       <c r="C43" t="n">
-        <v>1.869857995832035</v>
+        <v>1.869857995832206</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>23.71657382203605</v>
+        <v>23.71657382203447</v>
       </c>
       <c r="H43" t="n">
         <v>155.4085199241127</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>40.87644054172471</v>
+        <v>40.87644054172488</v>
       </c>
       <c r="T43" t="n">
-        <v>63.65806307646661</v>
+        <v>63.65806307646678</v>
       </c>
       <c r="U43" t="n">
-        <v>118.2538429444878</v>
+        <v>118.253842944488</v>
       </c>
       <c r="V43" t="n">
-        <v>92.07799955005714</v>
+        <v>92.07799955005731</v>
       </c>
       <c r="W43" t="n">
-        <v>117.2448856206704</v>
+        <v>117.2448856206706</v>
       </c>
       <c r="X43" t="n">
-        <v>62.88998761647352</v>
+        <v>62.88998761647369</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.76485537254121</v>
+        <v>53.76485537254138</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0531522757345</v>
+        <v>224.0531522757346</v>
       </c>
       <c r="C44" t="n">
         <v>212.0644692334163</v>
       </c>
       <c r="D44" t="n">
-        <v>203.0457732779442</v>
+        <v>203.0457732779443</v>
       </c>
       <c r="E44" t="n">
         <v>224.7879108478498</v>
@@ -3989,7 +3989,7 @@
         <v>243.959726935827</v>
       </c>
       <c r="G44" t="n">
-        <v>245.2986351842528</v>
+        <v>245.2986351842529</v>
       </c>
       <c r="H44" t="n">
         <v>157.3561240562726</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.7627632673344</v>
+        <v>5.762763267334424</v>
       </c>
       <c r="T44" t="n">
-        <v>53.46359559571177</v>
+        <v>53.46359559571179</v>
       </c>
       <c r="U44" t="n">
-        <v>86.23898230412175</v>
+        <v>86.23898230412178</v>
       </c>
       <c r="V44" t="n">
         <v>167.5595295159137</v>
@@ -4043,7 +4043,7 @@
         <v>212.1598872266172</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.5564850228159</v>
+        <v>223.556485022816</v>
       </c>
     </row>
     <row r="45">
@@ -4062,7 +4062,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>145.5577298436981</v>
       </c>
       <c r="F45" t="n">
         <v>133.3468600696244</v>
@@ -4074,7 +4074,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I45" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S45" t="n">
         <v>145.364587523205</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.66986315043161</v>
+        <v>15.66986315043164</v>
       </c>
       <c r="C46" t="n">
-        <v>1.869857995832092</v>
+        <v>1.86985799583212</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>121.7766368398192</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9139900217458732</v>
+        <v>0.9139900217459016</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>40.60739031761008</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>40.87644054172477</v>
+        <v>53.0375924190224</v>
       </c>
       <c r="T46" t="n">
-        <v>63.65806307646667</v>
+        <v>229.7080149235711</v>
       </c>
       <c r="U46" t="n">
         <v>118.2538429444879</v>
       </c>
       <c r="V46" t="n">
-        <v>92.0779995500572</v>
+        <v>92.07799955005723</v>
       </c>
       <c r="W46" t="n">
         <v>117.2448856206705</v>
       </c>
       <c r="X46" t="n">
-        <v>62.88998761647358</v>
+        <v>62.8899876164736</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.76485537254126</v>
+        <v>53.76485537254129</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1074.622634227563</v>
+        <v>1407.418580809949</v>
       </c>
       <c r="C11" t="n">
-        <v>823.212179594662</v>
+        <v>1156.008126177047</v>
       </c>
       <c r="D11" t="n">
-        <v>580.9115188561771</v>
+        <v>913.7074654385624</v>
       </c>
       <c r="E11" t="n">
-        <v>316.649102996576</v>
+        <v>649.4450495789606</v>
       </c>
       <c r="F11" t="n">
-        <v>316.649102996576</v>
+        <v>365.8171629234223</v>
       </c>
       <c r="G11" t="n">
-        <v>251.4013144695264</v>
+        <v>80.83684369371622</v>
       </c>
       <c r="H11" t="n">
-        <v>55.25181456101274</v>
+        <v>55.25181456101289</v>
       </c>
       <c r="I11" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J11" t="n">
-        <v>158.0430464355079</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K11" t="n">
-        <v>473.0321469193354</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="L11" t="n">
-        <v>753.6369192865143</v>
+        <v>476.8452645171566</v>
       </c>
       <c r="M11" t="n">
-        <v>1200.416806461538</v>
+        <v>923.6251516921809</v>
       </c>
       <c r="N11" t="n">
-        <v>1647.196693636562</v>
+        <v>1334.424833309986</v>
       </c>
       <c r="O11" t="n">
-        <v>1647.196693636562</v>
+        <v>1334.424833309986</v>
       </c>
       <c r="P11" t="n">
-        <v>1647.196693636562</v>
+        <v>1647.196693636563</v>
       </c>
       <c r="Q11" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="R11" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="S11" t="n">
-        <v>1805.171261313229</v>
+        <v>1762.14636826223</v>
       </c>
       <c r="T11" t="n">
-        <v>1713.963709344675</v>
+        <v>1670.938816293677</v>
       </c>
       <c r="U11" t="n">
-        <v>1589.649706155506</v>
+        <v>1670.938816293677</v>
       </c>
       <c r="V11" t="n">
-        <v>1589.649706155506</v>
+        <v>1670.938816293677</v>
       </c>
       <c r="W11" t="n">
-        <v>1589.649706155506</v>
+        <v>1670.938816293677</v>
       </c>
       <c r="X11" t="n">
-        <v>1338.142869711291</v>
+        <v>1670.938816293677</v>
       </c>
       <c r="Y11" t="n">
-        <v>1338.142869711291</v>
+        <v>1670.938816293677</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>493.9516937533066</v>
+        <v>193.0648000444895</v>
       </c>
       <c r="C12" t="n">
-        <v>332.2480209942613</v>
+        <v>65.09395812643282</v>
       </c>
       <c r="D12" t="n">
-        <v>315.7092064871493</v>
+        <v>56.77862515093628</v>
       </c>
       <c r="E12" t="n">
-        <v>299.204500578312</v>
+        <v>40.27391924209888</v>
       </c>
       <c r="F12" t="n">
-        <v>164.5107025281864</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="G12" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="H12" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I12" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J12" t="n">
         <v>126.102135052085</v>
       </c>
       <c r="K12" t="n">
-        <v>406.4308839238591</v>
+        <v>406.4308839238592</v>
       </c>
       <c r="L12" t="n">
-        <v>406.4308839238591</v>
+        <v>406.4308839238592</v>
       </c>
       <c r="M12" t="n">
-        <v>853.2107710988832</v>
+        <v>853.2107710988835</v>
       </c>
       <c r="N12" t="n">
-        <v>1299.990658273907</v>
+        <v>996.176667589949</v>
       </c>
       <c r="O12" t="n">
-        <v>1746.770545448931</v>
+        <v>1442.956554764973</v>
       </c>
       <c r="P12" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="Q12" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="R12" t="n">
-        <v>1805.171261313229</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="S12" t="n">
-        <v>1788.861648657414</v>
+        <v>1618.498058982888</v>
       </c>
       <c r="T12" t="n">
-        <v>1601.471297622238</v>
+        <v>1431.107707947713</v>
       </c>
       <c r="U12" t="n">
-        <v>1382.997638291259</v>
+        <v>1212.634048616733</v>
       </c>
       <c r="V12" t="n">
-        <v>1154.602015739593</v>
+        <v>984.238426065067</v>
       </c>
       <c r="W12" t="n">
-        <v>913.2861469729027</v>
+        <v>742.922557298377</v>
       </c>
       <c r="X12" t="n">
-        <v>715.3691588506972</v>
+        <v>545.0055691761715</v>
       </c>
       <c r="Y12" t="n">
-        <v>653.3711365345675</v>
+        <v>352.4842428257504</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>930.5129232377767</v>
+        <v>211.3509679716726</v>
       </c>
       <c r="C13" t="n">
-        <v>891.4202577337485</v>
+        <v>172.2583024676443</v>
       </c>
       <c r="D13" t="n">
-        <v>868.8716685958027</v>
+        <v>149.7097133296984</v>
       </c>
       <c r="E13" t="n">
-        <v>847.3859583914131</v>
+        <v>128.2240031253086</v>
       </c>
       <c r="F13" t="n">
-        <v>825.4286074514816</v>
+        <v>106.2666521853771</v>
       </c>
       <c r="G13" t="n">
-        <v>787.3014651536012</v>
+        <v>68.13950988749646</v>
       </c>
       <c r="H13" t="n">
-        <v>760.8464662342434</v>
+        <v>41.68451096813864</v>
       </c>
       <c r="I13" t="n">
-        <v>755.2653804923694</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J13" t="n">
-        <v>842.9899543619446</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K13" t="n">
-        <v>1004.223269052761</v>
+        <v>100.3730120089409</v>
       </c>
       <c r="L13" t="n">
-        <v>1144.071501494334</v>
+        <v>240.2212444505141</v>
       </c>
       <c r="M13" t="n">
-        <v>1303.439301488352</v>
+        <v>399.5890444445321</v>
       </c>
       <c r="N13" t="n">
-        <v>1462.252148872319</v>
+        <v>686.3277821125082</v>
       </c>
       <c r="O13" t="n">
-        <v>1598.022964714123</v>
+        <v>822.0985979543118</v>
       </c>
       <c r="P13" t="n">
-        <v>1692.914176830523</v>
+        <v>1044.915700354721</v>
       </c>
       <c r="Q13" t="n">
-        <v>1805.171261313229</v>
+        <v>1086.009306047126</v>
       </c>
       <c r="R13" t="n">
-        <v>1798.281594649999</v>
+        <v>1079.119639383896</v>
       </c>
       <c r="S13" t="n">
-        <v>1719.788340715776</v>
+        <v>1000.626385449673</v>
       </c>
       <c r="T13" t="n">
-        <v>1618.283346847471</v>
+        <v>899.1213915813673</v>
       </c>
       <c r="U13" t="n">
-        <v>1461.631100587224</v>
+        <v>742.469145321121</v>
       </c>
       <c r="V13" t="n">
-        <v>1331.419100179939</v>
+        <v>612.257144913835</v>
       </c>
       <c r="W13" t="n">
-        <v>1175.786002731629</v>
+        <v>456.6240474655255</v>
       </c>
       <c r="X13" t="n">
-        <v>1075.056842661297</v>
+        <v>355.8948873951926</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.5449878878651</v>
+        <v>264.3830326217611</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1326.572596952858</v>
+        <v>1062.310181093256</v>
       </c>
       <c r="C14" t="n">
-        <v>1326.572596952858</v>
+        <v>1062.310181093256</v>
       </c>
       <c r="D14" t="n">
-        <v>1084.271936214373</v>
+        <v>820.0095203547708</v>
       </c>
       <c r="E14" t="n">
-        <v>820.0095203547719</v>
+        <v>820.0095203547708</v>
       </c>
       <c r="F14" t="n">
-        <v>536.3816336992337</v>
+        <v>536.3816336992325</v>
       </c>
       <c r="G14" t="n">
-        <v>251.4013144695262</v>
+        <v>251.4013144695266</v>
       </c>
       <c r="H14" t="n">
-        <v>55.25181456101269</v>
+        <v>55.25181456101289</v>
       </c>
       <c r="I14" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J14" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K14" t="n">
-        <v>351.0925257100922</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="L14" t="n">
-        <v>440.8650589599369</v>
+        <v>36.71898932032093</v>
       </c>
       <c r="M14" t="n">
-        <v>887.6449461349609</v>
+        <v>483.4988764953453</v>
       </c>
       <c r="N14" t="n">
-        <v>1334.424833309985</v>
+        <v>930.2787636703696</v>
       </c>
       <c r="O14" t="n">
-        <v>1334.424833309985</v>
+        <v>1334.424833309986</v>
       </c>
       <c r="P14" t="n">
-        <v>1647.196693636562</v>
+        <v>1647.196693636563</v>
       </c>
       <c r="Q14" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="R14" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="S14" t="n">
-        <v>1762.146368262228</v>
+        <v>1762.146368262229</v>
       </c>
       <c r="T14" t="n">
-        <v>1670.938816293675</v>
+        <v>1670.938816293676</v>
       </c>
       <c r="U14" t="n">
-        <v>1546.624813104506</v>
+        <v>1670.938816293676</v>
       </c>
       <c r="V14" t="n">
-        <v>1546.624813104506</v>
+        <v>1464.482846223909</v>
       </c>
       <c r="W14" t="n">
-        <v>1326.572596952858</v>
+        <v>1464.482846223909</v>
       </c>
       <c r="X14" t="n">
-        <v>1326.572596952858</v>
+        <v>1325.830416576984</v>
       </c>
       <c r="Y14" t="n">
-        <v>1326.572596952858</v>
+        <v>1325.830416576984</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>900.9329879349815</v>
+        <v>412.5275531590493</v>
       </c>
       <c r="C15" t="n">
-        <v>739.2293151759362</v>
+        <v>250.823880400004</v>
       </c>
       <c r="D15" t="n">
-        <v>600.3906781661483</v>
+        <v>242.5085474245075</v>
       </c>
       <c r="E15" t="n">
-        <v>453.3626682230196</v>
+        <v>226.0038415156701</v>
       </c>
       <c r="F15" t="n">
-        <v>318.6688701728939</v>
+        <v>221.8333474998358</v>
       </c>
       <c r="G15" t="n">
-        <v>190.2615928709722</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="H15" t="n">
-        <v>93.42607019791396</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="I15" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J15" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K15" t="n">
-        <v>279.4719660543126</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="L15" t="n">
-        <v>713.6520399884514</v>
+        <v>470.2834991604034</v>
       </c>
       <c r="M15" t="n">
-        <v>1160.431927163475</v>
+        <v>917.0633863354277</v>
       </c>
       <c r="N15" t="n">
-        <v>1607.211814338499</v>
+        <v>996.176667589949</v>
       </c>
       <c r="O15" t="n">
-        <v>1607.211814338499</v>
+        <v>1442.956554764973</v>
       </c>
       <c r="P15" t="n">
-        <v>1607.211814338499</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="Q15" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.330975672993</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="S15" t="n">
-        <v>1618.498058982887</v>
+        <v>1707.437508063157</v>
       </c>
       <c r="T15" t="n">
-        <v>1431.107707947712</v>
+        <v>1650.570461062272</v>
       </c>
       <c r="U15" t="n">
-        <v>1267.885716335767</v>
+        <v>1432.096801731293</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.013397818393</v>
+        <v>1203.701179179627</v>
       </c>
       <c r="W15" t="n">
-        <v>1059.220833085994</v>
+        <v>962.3853104129369</v>
       </c>
       <c r="X15" t="n">
-        <v>991.8271489980805</v>
+        <v>764.4683222907314</v>
       </c>
       <c r="Y15" t="n">
-        <v>929.8291266819508</v>
+        <v>571.9469959403102</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.3509679716714</v>
+        <v>211.3509679716726</v>
       </c>
       <c r="C16" t="n">
-        <v>172.2583024676432</v>
+        <v>172.2583024676443</v>
       </c>
       <c r="D16" t="n">
-        <v>149.7097133296975</v>
+        <v>149.7097133296984</v>
       </c>
       <c r="E16" t="n">
-        <v>128.2240031253079</v>
+        <v>128.2240031253086</v>
       </c>
       <c r="F16" t="n">
-        <v>106.2666521853766</v>
+        <v>106.2666521853771</v>
       </c>
       <c r="G16" t="n">
-        <v>68.13950988749609</v>
+        <v>68.13950988749646</v>
       </c>
       <c r="H16" t="n">
-        <v>41.68451096813844</v>
+        <v>41.68451096813864</v>
       </c>
       <c r="I16" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J16" t="n">
-        <v>123.8279990958397</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K16" t="n">
-        <v>188.097585878516</v>
+        <v>157.1354235026493</v>
       </c>
       <c r="L16" t="n">
-        <v>327.9458183200892</v>
+        <v>424.9095462282315</v>
       </c>
       <c r="M16" t="n">
-        <v>584.2773462222464</v>
+        <v>584.2773462222495</v>
       </c>
       <c r="N16" t="n">
-        <v>743.0901936062135</v>
+        <v>743.0901936062166</v>
       </c>
       <c r="O16" t="n">
-        <v>878.8610094480171</v>
+        <v>878.8610094480201</v>
       </c>
       <c r="P16" t="n">
-        <v>973.7522215644169</v>
+        <v>973.75222156442</v>
       </c>
       <c r="Q16" t="n">
-        <v>1086.009306047123</v>
+        <v>1086.009306047126</v>
       </c>
       <c r="R16" t="n">
-        <v>1079.119639383893</v>
+        <v>1079.119639383896</v>
       </c>
       <c r="S16" t="n">
-        <v>1000.626385449671</v>
+        <v>1000.626385449673</v>
       </c>
       <c r="T16" t="n">
-        <v>899.1213915813651</v>
+        <v>899.1213915813673</v>
       </c>
       <c r="U16" t="n">
-        <v>742.4691453211188</v>
+        <v>742.469145321121</v>
       </c>
       <c r="V16" t="n">
-        <v>612.257144913833</v>
+        <v>612.257144913835</v>
       </c>
       <c r="W16" t="n">
-        <v>456.6240474655237</v>
+        <v>456.6240474655255</v>
       </c>
       <c r="X16" t="n">
-        <v>355.894887395191</v>
+        <v>355.8948873951926</v>
       </c>
       <c r="Y16" t="n">
-        <v>264.3830326217596</v>
+        <v>264.3830326217611</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1011.58935043969</v>
+        <v>1011.589350439691</v>
       </c>
       <c r="C17" t="n">
-        <v>851.3864477753417</v>
+        <v>851.3864477753431</v>
       </c>
       <c r="D17" t="n">
-        <v>700.29333900541</v>
+        <v>700.2933390054113</v>
       </c>
       <c r="E17" t="n">
-        <v>527.2384751143614</v>
+        <v>527.2384751143628</v>
       </c>
       <c r="F17" t="n">
-        <v>334.8181404273764</v>
+        <v>334.8181404273778</v>
       </c>
       <c r="G17" t="n">
         <v>141.0453731662251</v>
       </c>
       <c r="H17" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I17" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J17" t="n">
         <v>158.0430464355079</v>
       </c>
       <c r="K17" t="n">
-        <v>473.0321469193354</v>
+        <v>158.0430464355079</v>
       </c>
       <c r="L17" t="n">
-        <v>473.0321469193354</v>
+        <v>598.7848857263998</v>
       </c>
       <c r="M17" t="n">
-        <v>483.4988764953444</v>
+        <v>641.4734441720115</v>
       </c>
       <c r="N17" t="n">
-        <v>930.2787636703684</v>
+        <v>1088.253331347036</v>
       </c>
       <c r="O17" t="n">
-        <v>1334.424833309985</v>
+        <v>1492.399400986652</v>
       </c>
       <c r="P17" t="n">
-        <v>1647.196693636562</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="Q17" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="R17" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="S17" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="T17" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="U17" t="n">
-        <v>1772.064810092612</v>
+        <v>1772.064810092613</v>
       </c>
       <c r="V17" t="n">
-        <v>1656.816391991398</v>
+        <v>1656.8163919914</v>
       </c>
       <c r="W17" t="n">
-        <v>1516.012317851844</v>
+        <v>1516.012317851845</v>
       </c>
       <c r="X17" t="n">
-        <v>1355.713033376182</v>
+        <v>1355.713033376183</v>
       </c>
       <c r="Y17" t="n">
-        <v>1183.902033954864</v>
+        <v>1183.902033954866</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>317.825233219519</v>
+        <v>471.3395330452234</v>
       </c>
       <c r="C18" t="n">
-        <v>317.825233219519</v>
+        <v>309.6358602861782</v>
       </c>
       <c r="D18" t="n">
-        <v>317.825233219519</v>
+        <v>170.7972232763902</v>
       </c>
       <c r="E18" t="n">
         <v>170.7972232763902</v>
       </c>
       <c r="F18" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="G18" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="H18" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I18" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J18" t="n">
-        <v>36.10342522626457</v>
+        <v>126.102135052085</v>
       </c>
       <c r="K18" t="n">
-        <v>36.10342522626457</v>
+        <v>126.102135052085</v>
       </c>
       <c r="L18" t="n">
-        <v>470.2834991604033</v>
+        <v>560.2822089862238</v>
       </c>
       <c r="M18" t="n">
-        <v>917.0633863354274</v>
+        <v>1007.062096161248</v>
       </c>
       <c r="N18" t="n">
-        <v>917.0633863354274</v>
+        <v>1358.391374138205</v>
       </c>
       <c r="O18" t="n">
-        <v>1244.997107790243</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="P18" t="n">
-        <v>1607.211814338499</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="Q18" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.330975672993</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="S18" t="n">
-        <v>1743.258492157918</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="T18" t="n">
-        <v>1555.868141122742</v>
+        <v>1709.382440948447</v>
       </c>
       <c r="U18" t="n">
-        <v>1337.394481791762</v>
+        <v>1490.908781617467</v>
       </c>
       <c r="V18" t="n">
-        <v>1108.998859240096</v>
+        <v>1262.513159065801</v>
       </c>
       <c r="W18" t="n">
-        <v>867.6829904734064</v>
+        <v>1021.197290299111</v>
       </c>
       <c r="X18" t="n">
-        <v>669.766002351201</v>
+        <v>823.2803021769056</v>
       </c>
       <c r="Y18" t="n">
-        <v>477.2446760007799</v>
+        <v>630.7589758264844</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>204.7538715584366</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="C19" t="n">
-        <v>204.7538715584366</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="D19" t="n">
-        <v>204.7538715584366</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="E19" t="n">
-        <v>204.7538715584366</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="F19" t="n">
-        <v>204.7538715584366</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="G19" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="H19" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I19" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J19" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K19" t="n">
-        <v>100.3730120089408</v>
+        <v>100.3730120089409</v>
       </c>
       <c r="L19" t="n">
         <v>240.2212444505141</v>
@@ -5683,7 +5683,7 @@
         <v>399.5890444445321</v>
       </c>
       <c r="N19" t="n">
-        <v>558.4018918284992</v>
+        <v>558.4018918284993</v>
       </c>
       <c r="O19" t="n">
         <v>694.1727076703028</v>
@@ -5698,25 +5698,25 @@
         <v>789.0639197867026</v>
       </c>
       <c r="S19" t="n">
-        <v>580.0473618181883</v>
+        <v>789.0639197867026</v>
       </c>
       <c r="T19" t="n">
-        <v>569.7499199184358</v>
+        <v>778.7664778869502</v>
       </c>
       <c r="U19" t="n">
-        <v>504.3052256267428</v>
+        <v>491.5909275924125</v>
       </c>
       <c r="V19" t="n">
-        <v>465.30077718801</v>
+        <v>230.8556231508351</v>
       </c>
       <c r="W19" t="n">
-        <v>400.8752317082537</v>
+        <v>166.4300776710788</v>
       </c>
       <c r="X19" t="n">
-        <v>205.0581743633149</v>
+        <v>36.40772803114286</v>
       </c>
       <c r="Y19" t="n">
-        <v>204.7538715584366</v>
+        <v>36.1034252262646</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5729,25 @@
         <v>1011.589350439691</v>
       </c>
       <c r="C20" t="n">
-        <v>851.3864477753427</v>
+        <v>851.386447775343</v>
       </c>
       <c r="D20" t="n">
-        <v>700.2933390054109</v>
+        <v>700.2933390054111</v>
       </c>
       <c r="E20" t="n">
-        <v>527.2384751143624</v>
+        <v>527.2384751143625</v>
       </c>
       <c r="F20" t="n">
-        <v>334.8181404273773</v>
+        <v>334.8181404273776</v>
       </c>
       <c r="G20" t="n">
         <v>141.0453731662251</v>
       </c>
       <c r="H20" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I20" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J20" t="n">
         <v>158.0430464355079</v>
@@ -5756,31 +5756,31 @@
         <v>158.0430464355079</v>
       </c>
       <c r="L20" t="n">
-        <v>158.0430464355079</v>
+        <v>598.7848857263998</v>
       </c>
       <c r="M20" t="n">
-        <v>483.4988764953444</v>
+        <v>598.7848857263998</v>
       </c>
       <c r="N20" t="n">
-        <v>930.2787636703684</v>
+        <v>1045.564772901424</v>
       </c>
       <c r="O20" t="n">
-        <v>1334.424833309985</v>
+        <v>1334.424833309986</v>
       </c>
       <c r="P20" t="n">
-        <v>1647.196693636562</v>
+        <v>1647.196693636563</v>
       </c>
       <c r="Q20" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="R20" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="S20" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="T20" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="U20" t="n">
         <v>1772.064810092613</v>
@@ -5795,7 +5795,7 @@
         <v>1355.713033376183</v>
       </c>
       <c r="Y20" t="n">
-        <v>1183.902033954865</v>
+        <v>1183.902033954866</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>567.1283534100053</v>
+        <v>665.2588282521356</v>
       </c>
       <c r="C21" t="n">
-        <v>567.1283534100053</v>
+        <v>503.5551554930902</v>
       </c>
       <c r="D21" t="n">
-        <v>428.2897164002173</v>
+        <v>503.5551554930902</v>
       </c>
       <c r="E21" t="n">
-        <v>281.2617064570886</v>
+        <v>356.5271455499615</v>
       </c>
       <c r="F21" t="n">
-        <v>281.2617064570886</v>
+        <v>221.8333474998358</v>
       </c>
       <c r="G21" t="n">
-        <v>152.8544291551668</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="H21" t="n">
-        <v>93.42607019791396</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="I21" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J21" t="n">
         <v>126.102135052085</v>
       </c>
       <c r="K21" t="n">
-        <v>406.4308839238591</v>
+        <v>126.102135052085</v>
       </c>
       <c r="L21" t="n">
-        <v>406.4308839238591</v>
+        <v>560.2822089862238</v>
       </c>
       <c r="M21" t="n">
-        <v>853.2107710988832</v>
+        <v>713.652039988452</v>
       </c>
       <c r="N21" t="n">
-        <v>853.2107710988832</v>
+        <v>1160.431927163476</v>
       </c>
       <c r="O21" t="n">
-        <v>1299.990658273907</v>
+        <v>1607.211814338501</v>
       </c>
       <c r="P21" t="n">
-        <v>1662.205364822164</v>
+        <v>1607.211814338501</v>
       </c>
       <c r="Q21" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="R21" t="n">
-        <v>1805.171261313229</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="S21" t="n">
-        <v>1805.171261313229</v>
+        <v>1618.498058982888</v>
       </c>
       <c r="T21" t="n">
-        <v>1805.171261313229</v>
+        <v>1618.498058982888</v>
       </c>
       <c r="U21" t="n">
-        <v>1586.697601982249</v>
+        <v>1525.408634043118</v>
       </c>
       <c r="V21" t="n">
-        <v>1358.301979430583</v>
+        <v>1297.013011491452</v>
       </c>
       <c r="W21" t="n">
-        <v>1116.986110663893</v>
+        <v>1055.697142724762</v>
       </c>
       <c r="X21" t="n">
-        <v>919.0691225416873</v>
+        <v>857.7801546025568</v>
       </c>
       <c r="Y21" t="n">
-        <v>726.5477961912661</v>
+        <v>665.2588282521356</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>358.7912879368216</v>
+        <v>193.0817281799138</v>
       </c>
       <c r="C22" t="n">
-        <v>189.1753183985018</v>
+        <v>193.0817281799138</v>
       </c>
       <c r="D22" t="n">
-        <v>36.10342522626457</v>
+        <v>193.0817281799138</v>
       </c>
       <c r="E22" t="n">
-        <v>36.10342522626457</v>
+        <v>193.0817281799138</v>
       </c>
       <c r="F22" t="n">
-        <v>36.10342522626457</v>
+        <v>193.0817281799138</v>
       </c>
       <c r="G22" t="n">
-        <v>36.10342522626457</v>
+        <v>193.0817281799138</v>
       </c>
       <c r="H22" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I22" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J22" t="n">
-        <v>36.10342522626457</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K22" t="n">
-        <v>100.3730120089408</v>
+        <v>100.3730120089409</v>
       </c>
       <c r="L22" t="n">
         <v>240.2212444505141</v>
@@ -5920,7 +5920,7 @@
         <v>399.5890444445321</v>
       </c>
       <c r="N22" t="n">
-        <v>558.4018918284992</v>
+        <v>558.4018918284993</v>
       </c>
       <c r="O22" t="n">
         <v>694.1727076703028</v>
@@ -5929,31 +5929,31 @@
         <v>789.0639197867026</v>
       </c>
       <c r="Q22" t="n">
-        <v>773.0769737594571</v>
+        <v>789.0639197867026</v>
       </c>
       <c r="R22" t="n">
-        <v>635.6640030619362</v>
+        <v>789.0639197867026</v>
       </c>
       <c r="S22" t="n">
-        <v>635.6640030619362</v>
+        <v>580.0473618181883</v>
       </c>
       <c r="T22" t="n">
-        <v>625.3665611621838</v>
+        <v>569.7499199184358</v>
       </c>
       <c r="U22" t="n">
-        <v>559.9218668704907</v>
+        <v>504.3052256267428</v>
       </c>
       <c r="V22" t="n">
-        <v>520.9174184317579</v>
+        <v>465.30077718801</v>
       </c>
       <c r="W22" t="n">
-        <v>456.4918729520016</v>
+        <v>400.8752317082537</v>
       </c>
       <c r="X22" t="n">
-        <v>446.970264850222</v>
+        <v>391.3536236064741</v>
       </c>
       <c r="Y22" t="n">
-        <v>446.6659620453437</v>
+        <v>376.6370968642937</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1011.58935043969</v>
+        <v>1011.589350439691</v>
       </c>
       <c r="C23" t="n">
-        <v>851.3864477753425</v>
+        <v>851.3864477753427</v>
       </c>
       <c r="D23" t="n">
         <v>700.2933390054111</v>
       </c>
       <c r="E23" t="n">
-        <v>527.2384751143625</v>
+        <v>527.2384751143626</v>
       </c>
       <c r="F23" t="n">
         <v>334.8181404273776</v>
@@ -5981,22 +5981,22 @@
         <v>141.045373166225</v>
       </c>
       <c r="H23" t="n">
-        <v>36.10342522626457</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="I23" t="n">
-        <v>36.10342522626457</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="J23" t="n">
-        <v>36.10342522626457</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="K23" t="n">
         <v>351.0925257100922</v>
       </c>
       <c r="L23" t="n">
-        <v>507.465417323564</v>
+        <v>791.8343650009841</v>
       </c>
       <c r="M23" t="n">
-        <v>954.245304498588</v>
+        <v>1238.614252176008</v>
       </c>
       <c r="N23" t="n">
         <v>1401.025191673612</v>
@@ -6017,7 +6017,7 @@
         <v>1805.171261313228</v>
       </c>
       <c r="T23" t="n">
-        <v>1805.171261313228</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="U23" t="n">
         <v>1772.064810092613</v>
@@ -6026,10 +6026,10 @@
         <v>1656.816391991399</v>
       </c>
       <c r="W23" t="n">
-        <v>1516.012317851844</v>
+        <v>1516.012317851845</v>
       </c>
       <c r="X23" t="n">
-        <v>1355.713033376182</v>
+        <v>1355.713033376183</v>
       </c>
       <c r="Y23" t="n">
         <v>1183.902033954865</v>
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>392.3245284659844</v>
+        <v>618.3675429883522</v>
       </c>
       <c r="C24" t="n">
-        <v>392.3245284659844</v>
+        <v>456.6638702293069</v>
       </c>
       <c r="D24" t="n">
-        <v>253.4858914561964</v>
+        <v>317.825233219519</v>
       </c>
       <c r="E24" t="n">
-        <v>106.4578815130677</v>
+        <v>170.7972232763902</v>
       </c>
       <c r="F24" t="n">
-        <v>106.4578815130677</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="G24" t="n">
-        <v>93.42607019791396</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="H24" t="n">
-        <v>93.42607019791396</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="I24" t="n">
-        <v>36.10342522626457</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="J24" t="n">
-        <v>126.102135052085</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="K24" t="n">
-        <v>406.4308839238591</v>
+        <v>316.4321740980387</v>
       </c>
       <c r="L24" t="n">
-        <v>406.4308839238591</v>
+        <v>750.6122480321775</v>
       </c>
       <c r="M24" t="n">
-        <v>798.2172206152188</v>
+        <v>750.6122480321775</v>
       </c>
       <c r="N24" t="n">
-        <v>798.2172206152188</v>
+        <v>1197.392135207201</v>
       </c>
       <c r="O24" t="n">
-        <v>1244.997107790243</v>
+        <v>1244.997107790242</v>
       </c>
       <c r="P24" t="n">
         <v>1607.211814338499</v>
@@ -6093,25 +6093,25 @@
         <v>1805.171261313228</v>
       </c>
       <c r="S24" t="n">
-        <v>1658.338344623122</v>
+        <v>1805.171261313228</v>
       </c>
       <c r="T24" t="n">
-        <v>1470.947993587947</v>
+        <v>1805.171261313228</v>
       </c>
       <c r="U24" t="n">
-        <v>1252.474334256967</v>
+        <v>1637.936791560596</v>
       </c>
       <c r="V24" t="n">
-        <v>1024.078711705301</v>
+        <v>1409.54116900893</v>
       </c>
       <c r="W24" t="n">
-        <v>782.762842938611</v>
+        <v>1168.22530024224</v>
       </c>
       <c r="X24" t="n">
-        <v>584.8458548164056</v>
+        <v>970.3083121200342</v>
       </c>
       <c r="Y24" t="n">
-        <v>392.3245284659844</v>
+        <v>777.786985769613</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.10342522626457</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="C25" t="n">
-        <v>36.10342522626457</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="D25" t="n">
-        <v>36.10342522626457</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="E25" t="n">
-        <v>36.10342522626457</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="F25" t="n">
-        <v>36.10342522626457</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="G25" t="n">
-        <v>36.10342522626457</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="H25" t="n">
-        <v>36.10342522626457</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="I25" t="n">
-        <v>36.10342522626457</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="J25" t="n">
-        <v>36.10342522626457</v>
+        <v>36.10342522626456</v>
       </c>
       <c r="K25" t="n">
         <v>100.3730120089408</v>
       </c>
       <c r="L25" t="n">
-        <v>240.2212444505141</v>
+        <v>240.221244450514</v>
       </c>
       <c r="M25" t="n">
         <v>399.5890444445321</v>
@@ -6166,31 +6166,31 @@
         <v>789.0639197867026</v>
       </c>
       <c r="Q25" t="n">
-        <v>773.0769737594571</v>
+        <v>789.0639197867026</v>
       </c>
       <c r="R25" t="n">
-        <v>773.0769737594571</v>
+        <v>789.0639197867026</v>
       </c>
       <c r="S25" t="n">
-        <v>668.563178248546</v>
+        <v>789.0639197867026</v>
       </c>
       <c r="T25" t="n">
-        <v>436.534880345949</v>
+        <v>778.7664778869502</v>
       </c>
       <c r="U25" t="n">
-        <v>149.3593300514113</v>
+        <v>713.3217835952571</v>
       </c>
       <c r="V25" t="n">
-        <v>110.3548816126786</v>
+        <v>674.3173351565243</v>
       </c>
       <c r="W25" t="n">
-        <v>45.92933613292237</v>
+        <v>388.1609336739235</v>
       </c>
       <c r="X25" t="n">
-        <v>36.4077280311428</v>
+        <v>156.9084695692992</v>
       </c>
       <c r="Y25" t="n">
-        <v>36.10342522626457</v>
+        <v>36.10342522626456</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1808.955690151401</v>
+        <v>1808.955690151402</v>
       </c>
       <c r="C26" t="n">
-        <v>1529.41733654716</v>
+        <v>1529.417336547161</v>
       </c>
       <c r="D26" t="n">
         <v>1258.988776837336</v>
       </c>
       <c r="E26" t="n">
-        <v>966.5984620063946</v>
+        <v>966.5984620063947</v>
       </c>
       <c r="F26" t="n">
         <v>654.8426763795169</v>
@@ -6227,49 +6227,49 @@
         <v>292.478128703973</v>
       </c>
       <c r="K26" t="n">
-        <v>607.4672291878006</v>
+        <v>707.8249656899997</v>
       </c>
       <c r="L26" t="n">
-        <v>1148.566804980892</v>
+        <v>1248.924541483091</v>
       </c>
       <c r="M26" t="n">
-        <v>1700.905958240505</v>
+        <v>1845.842154418089</v>
       </c>
       <c r="N26" t="n">
-        <v>2284.587600719315</v>
+        <v>2429.5237968969</v>
       </c>
       <c r="O26" t="n">
-        <v>2789.091406861131</v>
+        <v>2934.027603038715</v>
       </c>
       <c r="P26" t="n">
-        <v>3202.221003689907</v>
+        <v>3347.157199867491</v>
       </c>
       <c r="Q26" t="n">
-        <v>3460.553307868772</v>
+        <v>3505.131767544157</v>
       </c>
       <c r="R26" t="n">
         <v>3509.038549626529</v>
       </c>
       <c r="S26" t="n">
-        <v>3437.885757604189</v>
+        <v>3437.88575760419</v>
       </c>
       <c r="T26" t="n">
-        <v>3318.550306664296</v>
+        <v>3318.550306664297</v>
       </c>
       <c r="U26" t="n">
-        <v>3166.108404503787</v>
+        <v>3166.108404503788</v>
       </c>
       <c r="V26" t="n">
-        <v>2931.52453546268</v>
+        <v>2931.524535462681</v>
       </c>
       <c r="W26" t="n">
-        <v>2671.385010383233</v>
+        <v>2671.385010383234</v>
       </c>
       <c r="X26" t="n">
         <v>2391.750274967679</v>
       </c>
       <c r="Y26" t="n">
-        <v>2100.603824606468</v>
+        <v>2100.603824606469</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>70.18077099253058</v>
       </c>
       <c r="J27" t="n">
-        <v>160.179480818351</v>
+        <v>70.18077099253058</v>
       </c>
       <c r="K27" t="n">
-        <v>440.5082296901252</v>
+        <v>70.18077099253058</v>
       </c>
       <c r="L27" t="n">
-        <v>874.6883036242639</v>
+        <v>504.3608449266694</v>
       </c>
       <c r="M27" t="n">
-        <v>1439.492485852753</v>
+        <v>1069.165027155159</v>
       </c>
       <c r="N27" t="n">
-        <v>1519.836543086607</v>
+        <v>1662.312798467207</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.942641447002</v>
+        <v>2129.418896827602</v>
       </c>
       <c r="P27" t="n">
-        <v>2349.157347995259</v>
+        <v>2491.633603375858</v>
       </c>
       <c r="Q27" t="n">
         <v>2547.116794969988</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>442.3236065373152</v>
+        <v>442.3236065373155</v>
       </c>
       <c r="C28" t="n">
-        <v>375.1030420619473</v>
+        <v>375.1030420619476</v>
       </c>
       <c r="D28" t="n">
-        <v>324.4265539526619</v>
+        <v>324.4265539526621</v>
       </c>
       <c r="E28" t="n">
-        <v>274.8129447769326</v>
+        <v>274.8129447769328</v>
       </c>
       <c r="F28" t="n">
-        <v>224.7276948656616</v>
+        <v>224.7276948656618</v>
       </c>
       <c r="G28" t="n">
-        <v>158.4726535964414</v>
+        <v>158.4726535964416</v>
       </c>
       <c r="H28" t="n">
         <v>103.8897557057442</v>
@@ -6382,22 +6382,22 @@
         <v>70.18077099253058</v>
       </c>
       <c r="J28" t="n">
-        <v>130.3371910802957</v>
+        <v>130.3371910802961</v>
       </c>
       <c r="K28" t="n">
-        <v>294.964514365171</v>
+        <v>294.9645143651715</v>
       </c>
       <c r="L28" t="n">
-        <v>535.1704833089434</v>
+        <v>535.1704833089439</v>
       </c>
       <c r="M28" t="n">
-        <v>794.8960198051604</v>
+        <v>794.8960198051609</v>
       </c>
       <c r="N28" t="n">
         <v>1054.066603691327</v>
       </c>
       <c r="O28" t="n">
-        <v>1290.195156035329</v>
+        <v>1290.19515603533</v>
       </c>
       <c r="P28" t="n">
         <v>1485.444104653928</v>
@@ -6415,19 +6415,19 @@
         <v>1298.861423975047</v>
       </c>
       <c r="U28" t="n">
-        <v>1114.081278743462</v>
+        <v>1114.081278743461</v>
       </c>
       <c r="V28" t="n">
-        <v>955.741379364836</v>
+        <v>955.7413793648358</v>
       </c>
       <c r="W28" t="n">
-        <v>771.980382945187</v>
+        <v>771.9803829451868</v>
       </c>
       <c r="X28" t="n">
-        <v>643.1233239035146</v>
+        <v>643.1233239035143</v>
       </c>
       <c r="Y28" t="n">
-        <v>523.4835701587432</v>
+        <v>523.4835701587434</v>
       </c>
     </row>
     <row r="29">
@@ -6470,10 +6470,10 @@
         <v>1248.924541483091</v>
       </c>
       <c r="M29" t="n">
-        <v>1845.842154418089</v>
+        <v>1745.48441791589</v>
       </c>
       <c r="N29" t="n">
-        <v>2429.5237968969</v>
+        <v>2329.1660603947</v>
       </c>
       <c r="O29" t="n">
         <v>2833.669866536516</v>
@@ -6540,25 +6540,25 @@
         <v>70.1807709925306</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1794808183511</v>
+        <v>70.1807709925306</v>
       </c>
       <c r="K30" t="n">
-        <v>440.5082296901252</v>
+        <v>350.5095198643048</v>
       </c>
       <c r="L30" t="n">
-        <v>874.688303624264</v>
+        <v>559.8440365207983</v>
       </c>
       <c r="M30" t="n">
-        <v>926.6887717745586</v>
+        <v>1124.648218749288</v>
       </c>
       <c r="N30" t="n">
-        <v>1519.836543086607</v>
+        <v>1717.795990061337</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.942641447002</v>
+        <v>2184.902088421732</v>
       </c>
       <c r="P30" t="n">
-        <v>2349.157347995259</v>
+        <v>2547.116794969988</v>
       </c>
       <c r="Q30" t="n">
         <v>2547.116794969988</v>
@@ -6598,13 +6598,13 @@
         <v>442.3236065373156</v>
       </c>
       <c r="C31" t="n">
-        <v>375.1030420619477</v>
+        <v>375.1030420619478</v>
       </c>
       <c r="D31" t="n">
-        <v>324.4265539526623</v>
+        <v>324.4265539526624</v>
       </c>
       <c r="E31" t="n">
-        <v>274.812944776933</v>
+        <v>274.8129447769331</v>
       </c>
       <c r="F31" t="n">
         <v>224.727694865662</v>
@@ -6619,22 +6619,22 @@
         <v>70.1807709925306</v>
       </c>
       <c r="J31" t="n">
-        <v>130.337191080296</v>
+        <v>130.3371910802958</v>
       </c>
       <c r="K31" t="n">
-        <v>294.9645143651713</v>
+        <v>294.9645143651711</v>
       </c>
       <c r="L31" t="n">
-        <v>535.1704833089435</v>
+        <v>535.1704833089434</v>
       </c>
       <c r="M31" t="n">
-        <v>794.8960198051604</v>
+        <v>794.8960198051607</v>
       </c>
       <c r="N31" t="n">
         <v>1054.066603691327</v>
       </c>
       <c r="O31" t="n">
-        <v>1290.195156035329</v>
+        <v>1290.19515603533</v>
       </c>
       <c r="P31" t="n">
         <v>1485.444104653928</v>
@@ -6646,22 +6646,22 @@
         <v>1535.115469720255</v>
       </c>
       <c r="S31" t="n">
-        <v>1428.494316814692</v>
+        <v>1428.494316814693</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.861423975047</v>
+        <v>1298.861423975048</v>
       </c>
       <c r="U31" t="n">
         <v>1114.081278743462</v>
       </c>
       <c r="V31" t="n">
-        <v>955.7413793648362</v>
+        <v>955.741379364836</v>
       </c>
       <c r="W31" t="n">
-        <v>771.9803829451872</v>
+        <v>771.980382945187</v>
       </c>
       <c r="X31" t="n">
-        <v>643.1233239035148</v>
+        <v>643.1233239035146</v>
       </c>
       <c r="Y31" t="n">
         <v>523.4835701587436</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1808.955690151402</v>
+        <v>1808.955690151403</v>
       </c>
       <c r="C32" t="n">
         <v>1529.417336547162</v>
@@ -6683,13 +6683,13 @@
         <v>1258.988776837337</v>
       </c>
       <c r="E32" t="n">
-        <v>966.5984620063956</v>
+        <v>966.5984620063959</v>
       </c>
       <c r="F32" t="n">
-        <v>654.8426763795178</v>
+        <v>654.8426763795181</v>
       </c>
       <c r="G32" t="n">
-        <v>341.7344581784716</v>
+        <v>341.7344581784728</v>
       </c>
       <c r="H32" t="n">
         <v>117.4570592986184</v>
@@ -6698,22 +6698,22 @@
         <v>70.1807709925306</v>
       </c>
       <c r="J32" t="n">
-        <v>247.8996690285887</v>
+        <v>292.478128703973</v>
       </c>
       <c r="K32" t="n">
-        <v>663.2465060146154</v>
+        <v>707.8249656899998</v>
       </c>
       <c r="L32" t="n">
-        <v>1204.346081807706</v>
+        <v>1248.924541483091</v>
       </c>
       <c r="M32" t="n">
-        <v>1801.263694742705</v>
+        <v>1845.842154418089</v>
       </c>
       <c r="N32" t="n">
-        <v>2384.945337221515</v>
+        <v>2429.5237968969</v>
       </c>
       <c r="O32" t="n">
-        <v>2889.449143363331</v>
+        <v>2934.027603038715</v>
       </c>
       <c r="P32" t="n">
         <v>3302.578740192107</v>
@@ -6780,22 +6780,22 @@
         <v>70.1807709925306</v>
       </c>
       <c r="K33" t="n">
-        <v>350.5095198643048</v>
+        <v>125.6639625866596</v>
       </c>
       <c r="L33" t="n">
-        <v>361.8845895460692</v>
+        <v>559.8440365207983</v>
       </c>
       <c r="M33" t="n">
-        <v>926.6887717745587</v>
+        <v>1124.648218749288</v>
       </c>
       <c r="N33" t="n">
-        <v>1519.836543086607</v>
+        <v>1717.795990061337</v>
       </c>
       <c r="O33" t="n">
-        <v>1986.942641447002</v>
+        <v>2184.902088421732</v>
       </c>
       <c r="P33" t="n">
-        <v>2349.157347995259</v>
+        <v>2547.116794969988</v>
       </c>
       <c r="Q33" t="n">
         <v>2547.116794969988</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>442.3236065373152</v>
+        <v>442.3236065373153</v>
       </c>
       <c r="C34" t="n">
-        <v>375.1030420619473</v>
+        <v>375.1030420619475</v>
       </c>
       <c r="D34" t="n">
-        <v>324.4265539526619</v>
+        <v>324.4265539526621</v>
       </c>
       <c r="E34" t="n">
         <v>274.8129447769327</v>
       </c>
       <c r="F34" t="n">
-        <v>224.7276948656616</v>
+        <v>224.7276948656617</v>
       </c>
       <c r="G34" t="n">
         <v>158.4726535964415</v>
@@ -6892,16 +6892,16 @@
         <v>1114.081278743461</v>
       </c>
       <c r="V34" t="n">
-        <v>955.7413793648357</v>
+        <v>955.7413793648358</v>
       </c>
       <c r="W34" t="n">
-        <v>771.9803829451866</v>
+        <v>771.9803829451868</v>
       </c>
       <c r="X34" t="n">
-        <v>643.1233239035142</v>
+        <v>643.1233239035143</v>
       </c>
       <c r="Y34" t="n">
-        <v>523.4835701587432</v>
+        <v>523.4835701587433</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1350.057431477639</v>
       </c>
       <c r="C35" t="n">
-        <v>1135.85089689843</v>
+        <v>1135.850896898431</v>
       </c>
       <c r="D35" t="n">
-        <v>930.7541562136382</v>
+        <v>930.7541562136387</v>
       </c>
       <c r="E35" t="n">
-        <v>703.6956604077292</v>
+        <v>703.6956604077297</v>
       </c>
       <c r="F35" t="n">
-        <v>457.2716938058838</v>
+        <v>457.2716938058843</v>
       </c>
       <c r="G35" t="n">
-        <v>209.4952946298709</v>
+        <v>209.495294629871</v>
       </c>
       <c r="H35" t="n">
         <v>50.54971477505016</v>
@@ -6950,10 +6950,10 @@
         <v>1786.16443695918</v>
       </c>
       <c r="O35" t="n">
-        <v>2056.739310749264</v>
+        <v>2190.310506598797</v>
       </c>
       <c r="P35" t="n">
-        <v>2369.511171075842</v>
+        <v>2503.082366925374</v>
       </c>
       <c r="Q35" t="n">
         <v>2527.485738752508</v>
@@ -6962,25 +6962,25 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S35" t="n">
-        <v>2521.6647657552</v>
+        <v>2521.664765755201</v>
       </c>
       <c r="T35" t="n">
-        <v>2467.66113384034</v>
+        <v>2467.661133840341</v>
       </c>
       <c r="U35" t="n">
         <v>2380.551050704863</v>
       </c>
       <c r="V35" t="n">
-        <v>2211.299000688788</v>
+        <v>2211.299000688789</v>
       </c>
       <c r="W35" t="n">
-        <v>2016.491294634373</v>
+        <v>2016.491294634374</v>
       </c>
       <c r="X35" t="n">
-        <v>1802.188378243851</v>
+        <v>1802.188378243852</v>
       </c>
       <c r="Y35" t="n">
-        <v>1576.373746907673</v>
+        <v>1576.373746907674</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.3792774837672</v>
+        <v>915.3792774837674</v>
       </c>
       <c r="C36" t="n">
-        <v>753.6756047247219</v>
+        <v>753.6756047247222</v>
       </c>
       <c r="D36" t="n">
-        <v>614.836967714934</v>
+        <v>614.8369677149344</v>
       </c>
       <c r="E36" t="n">
-        <v>467.8089577718051</v>
+        <v>467.8089577718056</v>
       </c>
       <c r="F36" t="n">
-        <v>333.1151597216795</v>
+        <v>333.1151597216798</v>
       </c>
       <c r="G36" t="n">
-        <v>204.7078824197577</v>
+        <v>204.7078824197579</v>
       </c>
       <c r="H36" t="n">
         <v>107.8723597466995</v>
@@ -7023,28 +7023,28 @@
         <v>855.0572474067835</v>
       </c>
       <c r="M36" t="n">
-        <v>907.0577155570784</v>
+        <v>1419.861429635273</v>
       </c>
       <c r="N36" t="n">
-        <v>1500.205486869127</v>
+        <v>2013.009200947321</v>
       </c>
       <c r="O36" t="n">
-        <v>1967.311585229522</v>
+        <v>2013.009200947321</v>
       </c>
       <c r="P36" t="n">
-        <v>2329.526291777778</v>
+        <v>2375.223907495578</v>
       </c>
       <c r="Q36" t="n">
         <v>2527.485738752508</v>
       </c>
       <c r="R36" t="n">
-        <v>2487.645453112272</v>
+        <v>2487.645453112273</v>
       </c>
       <c r="S36" t="n">
-        <v>2340.812536422166</v>
+        <v>2340.812536422167</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.42218538699</v>
+        <v>2153.422185386991</v>
       </c>
       <c r="U36" t="n">
         <v>1934.948526056011</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>217.3859523255633</v>
+        <v>65.64567426482381</v>
       </c>
       <c r="C37" t="n">
-        <v>215.4972068752279</v>
+        <v>63.75692881448836</v>
       </c>
       <c r="D37" t="n">
-        <v>215.4972068752279</v>
+        <v>63.75692881448836</v>
       </c>
       <c r="E37" t="n">
-        <v>215.4972068752279</v>
+        <v>63.75692881448836</v>
       </c>
       <c r="F37" t="n">
-        <v>215.4972068752279</v>
+        <v>63.75692881448836</v>
       </c>
       <c r="G37" t="n">
-        <v>186.6541045512156</v>
+        <v>62.83370657030061</v>
       </c>
       <c r="H37" t="n">
-        <v>186.6541045512156</v>
+        <v>62.83370657030061</v>
       </c>
       <c r="I37" t="n">
         <v>50.54971477505016</v>
@@ -7114,31 +7114,31 @@
         <v>803.5102093354883</v>
       </c>
       <c r="Q37" t="n">
-        <v>787.5232633082428</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="R37" t="n">
-        <v>787.5232633082428</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="S37" t="n">
-        <v>746.2339294277128</v>
+        <v>762.2208754549582</v>
       </c>
       <c r="T37" t="n">
-        <v>681.9328556131002</v>
+        <v>697.9198016403454</v>
       </c>
       <c r="U37" t="n">
-        <v>562.4845294065468</v>
+        <v>410.7442513458078</v>
       </c>
       <c r="V37" t="n">
-        <v>469.4764490529537</v>
+        <v>317.7361709922146</v>
       </c>
       <c r="W37" t="n">
-        <v>351.0472716583372</v>
+        <v>199.306993597598</v>
       </c>
       <c r="X37" t="n">
-        <v>287.5220316416973</v>
+        <v>135.781753580958</v>
       </c>
       <c r="Y37" t="n">
-        <v>233.2140969219587</v>
+        <v>81.47381886121937</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1350.057431477639</v>
+        <v>1350.05743147764</v>
       </c>
       <c r="C38" t="n">
-        <v>1135.85089689843</v>
+        <v>1135.850896898431</v>
       </c>
       <c r="D38" t="n">
-        <v>930.7541562136382</v>
+        <v>930.7541562136389</v>
       </c>
       <c r="E38" t="n">
-        <v>703.6956604077293</v>
+        <v>703.69566040773</v>
       </c>
       <c r="F38" t="n">
-        <v>457.2716938058838</v>
+        <v>457.2716938058845</v>
       </c>
       <c r="G38" t="n">
         <v>209.495294629871</v>
@@ -7172,19 +7172,19 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J38" t="n">
-        <v>172.4893359842935</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="K38" t="n">
-        <v>487.4784364681211</v>
+        <v>365.5388152588778</v>
       </c>
       <c r="L38" t="n">
-        <v>928.220275759013</v>
+        <v>806.2806545497697</v>
       </c>
       <c r="M38" t="n">
-        <v>1424.780152191812</v>
+        <v>1302.840530982569</v>
       </c>
       <c r="N38" t="n">
-        <v>1652.593241109647</v>
+        <v>1786.16443695918</v>
       </c>
       <c r="O38" t="n">
         <v>2056.739310749264</v>
@@ -7199,22 +7199,22 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S38" t="n">
-        <v>2521.6647657552</v>
+        <v>2521.664765755201</v>
       </c>
       <c r="T38" t="n">
         <v>2467.66113384034</v>
       </c>
       <c r="U38" t="n">
-        <v>2380.551050704863</v>
+        <v>2380.551050704864</v>
       </c>
       <c r="V38" t="n">
         <v>2211.299000688789</v>
       </c>
       <c r="W38" t="n">
-        <v>2016.491294634374</v>
+        <v>2016.491294634375</v>
       </c>
       <c r="X38" t="n">
-        <v>1802.188378243851</v>
+        <v>1802.188378243852</v>
       </c>
       <c r="Y38" t="n">
         <v>1576.373746907674</v>
@@ -7260,22 +7260,22 @@
         <v>855.0572474067835</v>
       </c>
       <c r="M39" t="n">
-        <v>1269.272422105335</v>
+        <v>1419.861429635273</v>
       </c>
       <c r="N39" t="n">
-        <v>1862.420193417383</v>
+        <v>1500.205486869127</v>
       </c>
       <c r="O39" t="n">
-        <v>2329.526291777778</v>
+        <v>1967.311585229522</v>
       </c>
       <c r="P39" t="n">
-        <v>2329.526291777778</v>
+        <v>2329.526291777779</v>
       </c>
       <c r="Q39" t="n">
         <v>2527.485738752508</v>
       </c>
       <c r="R39" t="n">
-        <v>2487.645453112272</v>
+        <v>2487.645453112273</v>
       </c>
       <c r="S39" t="n">
         <v>2340.812536422166</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>205.8423374437963</v>
+        <v>53.36168246957342</v>
       </c>
       <c r="C40" t="n">
-        <v>203.9535919934608</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="D40" t="n">
-        <v>203.9535919934608</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="E40" t="n">
-        <v>203.9535919934608</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="F40" t="n">
-        <v>51.4729370192379</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="G40" t="n">
         <v>50.54971477505016</v>
@@ -7351,31 +7351,31 @@
         <v>803.5102093354883</v>
       </c>
       <c r="Q40" t="n">
-        <v>787.5232633082428</v>
+        <v>791.2262175402381</v>
       </c>
       <c r="R40" t="n">
-        <v>787.5232633082428</v>
+        <v>791.2262175402381</v>
       </c>
       <c r="S40" t="n">
-        <v>746.2339294277127</v>
+        <v>749.936883659708</v>
       </c>
       <c r="T40" t="n">
-        <v>681.9328556130999</v>
+        <v>685.6358098450952</v>
       </c>
       <c r="U40" t="n">
-        <v>562.4845294065465</v>
+        <v>566.1874836385417</v>
       </c>
       <c r="V40" t="n">
-        <v>469.4764490529533</v>
+        <v>473.1794032849486</v>
       </c>
       <c r="W40" t="n">
-        <v>351.0472716583367</v>
+        <v>354.7502258903319</v>
       </c>
       <c r="X40" t="n">
-        <v>287.5220316416967</v>
+        <v>291.2249858736919</v>
       </c>
       <c r="Y40" t="n">
-        <v>221.6704820401918</v>
+        <v>69.18982706596901</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1350.05743147764</v>
+        <v>1350.057431477639</v>
       </c>
       <c r="C41" t="n">
-        <v>1135.850896898431</v>
+        <v>1135.85089689843</v>
       </c>
       <c r="D41" t="n">
-        <v>930.7541562136389</v>
+        <v>930.7541562136382</v>
       </c>
       <c r="E41" t="n">
-        <v>703.6956604077301</v>
+        <v>703.6956604077295</v>
       </c>
       <c r="F41" t="n">
-        <v>457.2716938058848</v>
+        <v>457.2716938058841</v>
       </c>
       <c r="G41" t="n">
-        <v>209.4952946298709</v>
+        <v>209.4952946298711</v>
       </c>
       <c r="H41" t="n">
         <v>50.54971477505016</v>
@@ -7412,16 +7412,16 @@
         <v>50.54971477505016</v>
       </c>
       <c r="K41" t="n">
-        <v>231.9676194093449</v>
+        <v>231.9676194093453</v>
       </c>
       <c r="L41" t="n">
-        <v>672.7094587002368</v>
+        <v>672.7094587002373</v>
       </c>
       <c r="M41" t="n">
         <v>1169.269335133036</v>
       </c>
       <c r="N41" t="n">
-        <v>1652.593241109647</v>
+        <v>1652.593241109648</v>
       </c>
       <c r="O41" t="n">
         <v>2056.739310749264</v>
@@ -7436,19 +7436,19 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S41" t="n">
-        <v>2521.6647657552</v>
+        <v>2521.664765755201</v>
       </c>
       <c r="T41" t="n">
         <v>2467.66113384034</v>
       </c>
       <c r="U41" t="n">
-        <v>2380.551050704863</v>
+        <v>2380.551050704864</v>
       </c>
       <c r="V41" t="n">
         <v>2211.299000688789</v>
       </c>
       <c r="W41" t="n">
-        <v>2016.491294634374</v>
+        <v>2016.491294634375</v>
       </c>
       <c r="X41" t="n">
         <v>1802.188378243852</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.3792774837674</v>
+        <v>915.3792774837672</v>
       </c>
       <c r="C42" t="n">
-        <v>753.6756047247222</v>
+        <v>753.6756047247219</v>
       </c>
       <c r="D42" t="n">
-        <v>614.8369677149344</v>
+        <v>614.836967714934</v>
       </c>
       <c r="E42" t="n">
-        <v>467.8089577718056</v>
+        <v>467.8089577718051</v>
       </c>
       <c r="F42" t="n">
-        <v>333.1151597216798</v>
+        <v>333.1151597216795</v>
       </c>
       <c r="G42" t="n">
         <v>204.7078824197577</v>
@@ -7488,25 +7488,25 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J42" t="n">
-        <v>50.54971477505016</v>
+        <v>140.5484246008706</v>
       </c>
       <c r="K42" t="n">
-        <v>330.8784636468243</v>
+        <v>140.5484246008706</v>
       </c>
       <c r="L42" t="n">
-        <v>765.058537580963</v>
+        <v>574.7284985350094</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.017162531808</v>
+        <v>1139.532680763499</v>
       </c>
       <c r="N42" t="n">
-        <v>1698.164933843856</v>
+        <v>1732.680452075548</v>
       </c>
       <c r="O42" t="n">
-        <v>2165.271032204251</v>
+        <v>2199.786550435942</v>
       </c>
       <c r="P42" t="n">
-        <v>2527.485738752508</v>
+        <v>2329.526291777778</v>
       </c>
       <c r="Q42" t="n">
         <v>2527.485738752508</v>
@@ -7518,7 +7518,7 @@
         <v>2340.812536422166</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.422185386991</v>
+        <v>2153.42218538699</v>
       </c>
       <c r="U42" t="n">
         <v>1934.948526056011</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>233.3728983528085</v>
+        <v>233.3728983528071</v>
       </c>
       <c r="C43" t="n">
-        <v>231.4841529024731</v>
+        <v>231.4841529024715</v>
       </c>
       <c r="D43" t="n">
-        <v>231.4841529024731</v>
+        <v>231.4841529024715</v>
       </c>
       <c r="E43" t="n">
-        <v>231.4841529024731</v>
+        <v>231.4841529024715</v>
       </c>
       <c r="F43" t="n">
-        <v>231.4841529024731</v>
+        <v>231.4841529024715</v>
       </c>
       <c r="G43" t="n">
         <v>207.5280177286994</v>
@@ -7594,25 +7594,25 @@
         <v>803.5102093354883</v>
       </c>
       <c r="S43" t="n">
-        <v>762.2208754549583</v>
+        <v>762.2208754549581</v>
       </c>
       <c r="T43" t="n">
-        <v>697.9198016403456</v>
+        <v>697.9198016403452</v>
       </c>
       <c r="U43" t="n">
-        <v>578.4714754337922</v>
+        <v>578.4714754337916</v>
       </c>
       <c r="V43" t="n">
-        <v>485.4633950801991</v>
+        <v>485.4633950801984</v>
       </c>
       <c r="W43" t="n">
-        <v>367.0342176855826</v>
+        <v>367.0342176855817</v>
       </c>
       <c r="X43" t="n">
-        <v>303.5089776689426</v>
+        <v>303.5089776689416</v>
       </c>
       <c r="Y43" t="n">
-        <v>249.201042949204</v>
+        <v>249.2010429492028</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1350.057431477639</v>
+        <v>1350.05743147764</v>
       </c>
       <c r="C44" t="n">
-        <v>1135.850896898431</v>
+        <v>1135.850896898432</v>
       </c>
       <c r="D44" t="n">
-        <v>930.7541562136385</v>
+        <v>930.7541562136394</v>
       </c>
       <c r="E44" t="n">
-        <v>703.6956604077295</v>
+        <v>703.6956604077302</v>
       </c>
       <c r="F44" t="n">
-        <v>457.2716938058843</v>
+        <v>457.2716938058848</v>
       </c>
       <c r="G44" t="n">
         <v>209.495294629871</v>
@@ -7649,16 +7649,16 @@
         <v>172.4893359842935</v>
       </c>
       <c r="K44" t="n">
-        <v>231.9676194093449</v>
+        <v>487.4784364681211</v>
       </c>
       <c r="L44" t="n">
-        <v>672.7094587002368</v>
+        <v>672.7094587002373</v>
       </c>
       <c r="M44" t="n">
         <v>1169.269335133036</v>
       </c>
       <c r="N44" t="n">
-        <v>1652.593241109647</v>
+        <v>1652.593241109648</v>
       </c>
       <c r="O44" t="n">
         <v>2056.739310749264</v>
@@ -7673,25 +7673,25 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S44" t="n">
-        <v>2521.6647657552</v>
+        <v>2521.664765755201</v>
       </c>
       <c r="T44" t="n">
-        <v>2467.66113384034</v>
+        <v>2467.661133840341</v>
       </c>
       <c r="U44" t="n">
-        <v>2380.551050704863</v>
+        <v>2380.551050704864</v>
       </c>
       <c r="V44" t="n">
-        <v>2211.299000688789</v>
+        <v>2211.29900068879</v>
       </c>
       <c r="W44" t="n">
-        <v>2016.491294634374</v>
+        <v>2016.491294634375</v>
       </c>
       <c r="X44" t="n">
-        <v>1802.188378243852</v>
+        <v>1802.188378243853</v>
       </c>
       <c r="Y44" t="n">
-        <v>1576.373746907674</v>
+        <v>1576.373746907675</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.3792774837672</v>
+        <v>915.3792774837677</v>
       </c>
       <c r="C45" t="n">
-        <v>753.6756047247219</v>
+        <v>753.6756047247225</v>
       </c>
       <c r="D45" t="n">
-        <v>614.836967714934</v>
+        <v>614.8369677149345</v>
       </c>
       <c r="E45" t="n">
         <v>467.8089577718051</v>
@@ -7725,37 +7725,37 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J45" t="n">
-        <v>140.5484246008706</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="K45" t="n">
-        <v>420.8771734726448</v>
+        <v>106.0329063691797</v>
       </c>
       <c r="L45" t="n">
-        <v>855.0572474067835</v>
+        <v>540.2129803033184</v>
       </c>
       <c r="M45" t="n">
-        <v>1419.861429635273</v>
+        <v>1105.017162531808</v>
       </c>
       <c r="N45" t="n">
-        <v>1862.420193417383</v>
+        <v>1698.164933843857</v>
       </c>
       <c r="O45" t="n">
-        <v>2329.526291777778</v>
+        <v>2165.271032204252</v>
       </c>
       <c r="P45" t="n">
-        <v>2329.526291777778</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="Q45" t="n">
         <v>2527.485738752508</v>
       </c>
       <c r="R45" t="n">
-        <v>2487.645453112272</v>
+        <v>2487.645453112273</v>
       </c>
       <c r="S45" t="n">
         <v>2340.812536422166</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.42218538699</v>
+        <v>2153.422185386991</v>
       </c>
       <c r="U45" t="n">
         <v>1934.948526056011</v>
@@ -7767,10 +7767,10 @@
         <v>1465.237034737655</v>
       </c>
       <c r="X45" t="n">
-        <v>1267.320046615449</v>
+        <v>1267.32004661545</v>
       </c>
       <c r="Y45" t="n">
-        <v>1074.798720265028</v>
+        <v>1074.798720265029</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>217.3859523255625</v>
+        <v>53.36168246957342</v>
       </c>
       <c r="C46" t="n">
-        <v>215.4972068752271</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="D46" t="n">
-        <v>215.4972068752271</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="E46" t="n">
-        <v>215.4972068752271</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="F46" t="n">
-        <v>92.49050299662183</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="G46" t="n">
-        <v>91.56728075243407</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="H46" t="n">
-        <v>91.56728075243407</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="I46" t="n">
-        <v>91.56728075243407</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="J46" t="n">
         <v>50.54971477505016</v>
@@ -7825,31 +7825,31 @@
         <v>803.5102093354883</v>
       </c>
       <c r="Q46" t="n">
-        <v>787.5232633082428</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="R46" t="n">
-        <v>787.5232633082428</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="S46" t="n">
-        <v>746.2339294277127</v>
+        <v>749.9368836597081</v>
       </c>
       <c r="T46" t="n">
-        <v>681.9328556130999</v>
+        <v>517.908585757111</v>
       </c>
       <c r="U46" t="n">
-        <v>562.4845294065465</v>
+        <v>398.4602595505576</v>
       </c>
       <c r="V46" t="n">
-        <v>469.4764490529533</v>
+        <v>305.4521791969644</v>
       </c>
       <c r="W46" t="n">
-        <v>351.0472716583367</v>
+        <v>187.0230018023477</v>
       </c>
       <c r="X46" t="n">
-        <v>287.5220316416967</v>
+        <v>123.4977617857077</v>
       </c>
       <c r="Y46" t="n">
-        <v>233.2140969219581</v>
+        <v>69.18982706596901</v>
       </c>
     </row>
   </sheetData>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>96.65426516890469</v>
       </c>
       <c r="K11" t="n">
-        <v>421.3890363425141</v>
+        <v>103.2182277729913</v>
       </c>
       <c r="L11" t="n">
-        <v>381.2049658613299</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>534.0847761085863</v>
+        <v>534.0847761085865</v>
       </c>
       <c r="N11" t="n">
-        <v>531.6378514309457</v>
+        <v>495.2942094539569</v>
       </c>
       <c r="O11" t="n">
         <v>86.81188247023911</v>
       </c>
       <c r="P11" t="n">
-        <v>102.4071485758795</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8775,16 +8775,16 @@
         <v>43.52671764789213</v>
       </c>
       <c r="M12" t="n">
-        <v>486.2001232250349</v>
+        <v>486.2001232250351</v>
       </c>
       <c r="N12" t="n">
-        <v>475.2987390334634</v>
+        <v>168.4159201607781</v>
       </c>
       <c r="O12" t="n">
-        <v>491.4894886098788</v>
+        <v>491.4894886098791</v>
       </c>
       <c r="P12" t="n">
-        <v>107.1187803592325</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
         <v>73.14143670839249</v>
@@ -8927,19 +8927,19 @@
         <v>96.65426516890469</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425141</v>
+        <v>103.2182277729913</v>
       </c>
       <c r="L14" t="n">
-        <v>188.4451283690732</v>
+        <v>98.38758376726675</v>
       </c>
       <c r="M14" t="n">
-        <v>534.0847761085863</v>
+        <v>534.0847761085867</v>
       </c>
       <c r="N14" t="n">
-        <v>531.6378514309457</v>
+        <v>531.6378514309459</v>
       </c>
       <c r="O14" t="n">
-        <v>86.81188247023911</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
         <v>418.3383206229274</v>
@@ -9006,25 +9006,25 @@
         <v>73.01055823968255</v>
       </c>
       <c r="K15" t="n">
-        <v>306.471264637841</v>
+        <v>60.64445572062075</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>486.2001232250348</v>
+        <v>486.2001232250351</v>
       </c>
       <c r="N15" t="n">
-        <v>475.2987390334635</v>
+        <v>103.9183290127536</v>
       </c>
       <c r="O15" t="n">
-        <v>40.19667328157168</v>
+        <v>491.4894886098791</v>
       </c>
       <c r="P15" t="n">
-        <v>48.12815827408364</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839249</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,16 +9164,16 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425141</v>
+        <v>103.2182277729913</v>
       </c>
       <c r="L17" t="n">
-        <v>97.76580185407853</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>93.36441489745992</v>
+        <v>125.9117167859475</v>
       </c>
       <c r="N17" t="n">
-        <v>531.6378514309457</v>
+        <v>531.6378514309459</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9182,7 +9182,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578761</v>
+        <v>116.4392174774051</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>73.01055823968255</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>60.64445572062075</v>
@@ -9249,19 +9249,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>486.2001232250349</v>
+        <v>486.2001232250351</v>
       </c>
       <c r="N18" t="n">
-        <v>24.00592370515631</v>
+        <v>378.8839822677392</v>
       </c>
       <c r="O18" t="n">
-        <v>371.4428565692643</v>
+        <v>491.4894886098791</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>48.12815827408364</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839249</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9404,16 +9404,16 @@
         <v>103.2182277729913</v>
       </c>
       <c r="L20" t="n">
-        <v>97.76580185407853</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>411.5352234669828</v>
+        <v>82.79196078027915</v>
       </c>
       <c r="N20" t="n">
-        <v>531.6378514309457</v>
+        <v>531.6378514309459</v>
       </c>
       <c r="O20" t="n">
-        <v>495.0402356415689</v>
+        <v>378.5897212667664</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
@@ -9480,25 +9480,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>60.64445572062075</v>
       </c>
       <c r="L21" t="n">
-        <v>43.52671764789213</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>486.2001232250349</v>
+        <v>189.8263291110995</v>
       </c>
       <c r="N21" t="n">
-        <v>24.00592370515631</v>
+        <v>475.2987390334637</v>
       </c>
       <c r="O21" t="n">
-        <v>491.4894886098788</v>
+        <v>491.4894886098791</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>48.12815827408364</v>
       </c>
       <c r="Q21" t="n">
-        <v>217.5514331640137</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9641,13 +9641,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>255.7182176252622</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>534.0847761085862</v>
+        <v>534.0847761085861</v>
       </c>
       <c r="N23" t="n">
-        <v>531.6378514309456</v>
+        <v>244.3964901406218</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
@@ -9714,22 +9714,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>73.01055823968255</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>43.52671764789213</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>430.6510823324445</v>
+        <v>34.9073078967277</v>
       </c>
       <c r="N24" t="n">
-        <v>24.00592370515631</v>
+        <v>475.2987390334633</v>
       </c>
       <c r="O24" t="n">
-        <v>491.4894886098787</v>
+        <v>88.28250417353227</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>73.01055823968255</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>60.64445572062075</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>105.1615370726854</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>129.1850645812506</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,16 +10188,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>73.01055823968254</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>254.975724371623</v>
       </c>
       <c r="M30" t="n">
-        <v>87.43303330106571</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839249</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,13 +10425,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>73.01055823968255</v>
+        <v>73.01055823968254</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>116.6880835934783</v>
       </c>
       <c r="L33" t="n">
-        <v>55.01668702341171</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839249</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10598,13 +10598,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O35" t="n">
-        <v>360.1198357935563</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>141.0890880098636</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10671,19 +10671,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>87.43303330106595</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>40.19667328157166</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>226.9412662608473</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>96.65426516890469</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10832,10 +10832,10 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
-        <v>310.4592673327752</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415689</v>
+        <v>360.1198357935565</v>
       </c>
       <c r="P38" t="n">
         <v>418.3383206229274</v>
@@ -10908,16 +10908,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>453.3064742589006</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>105.1615370726859</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>48.12815827408364</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11060,7 +11060,7 @@
         <v>96.65426516890469</v>
       </c>
       <c r="K41" t="n">
-        <v>286.4686364945012</v>
+        <v>286.4686364945016</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11136,16 +11136,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>73.01055823968255</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>60.64445572062074</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>378.2998583521264</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
@@ -11154,10 +11154,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>179.1784020537157</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.14143670839249</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11297,10 +11297,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>163.2973019397099</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155856</v>
+        <v>284.8678445127817</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>73.01055823968254</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>116.6880835934788</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,16 +11385,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>471.0349780305202</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>48.12815827408364</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839249</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>280.7916077889828</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>217.5352053956295</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8588260680521</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>42.59464412049024</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>123.0708631572777</v>
       </c>
       <c r="V11" t="n">
-        <v>204.3914103690695</v>
+        <v>204.3914103690696</v>
       </c>
       <c r="W11" t="n">
-        <v>229.6915098470264</v>
+        <v>229.6915098470265</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>248.9917680797731</v>
       </c>
       <c r="Y11" t="n">
-        <v>260.3883658759718</v>
+        <v>260.3883658759719</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>260.8850331288903</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>248.8963500865721</v>
+        <v>248.8963500865722</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>261.6197917010057</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>123.0708631572777</v>
       </c>
       <c r="V14" t="n">
-        <v>204.3914103690694</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>11.8398158568951</v>
+        <v>229.6915098470265</v>
       </c>
       <c r="X14" t="n">
-        <v>248.991768079773</v>
+        <v>111.7258627293171</v>
       </c>
       <c r="Y14" t="n">
-        <v>260.3883658759717</v>
+        <v>260.3883658759719</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.524230250115252e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>904802.7364391407</v>
+        <v>904802.7364391405</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>478672.8946920654</v>
+        <v>478672.8946920651</v>
       </c>
       <c r="C2" t="n">
         <v>478672.8946920652</v>
       </c>
       <c r="D2" t="n">
-        <v>478672.8946920653</v>
+        <v>478672.8946920651</v>
       </c>
       <c r="E2" t="n">
-        <v>418304.2488248546</v>
+        <v>418304.2488248544</v>
       </c>
       <c r="F2" t="n">
-        <v>418304.2488248544</v>
+        <v>418304.2488248543</v>
       </c>
       <c r="G2" t="n">
-        <v>479765.0378088633</v>
+        <v>479765.0378088634</v>
       </c>
       <c r="H2" t="n">
-        <v>479765.0378088633</v>
+        <v>479765.0378088634</v>
       </c>
       <c r="I2" t="n">
         <v>479765.0378088634</v>
       </c>
       <c r="J2" t="n">
+        <v>479765.0378088635</v>
+      </c>
+      <c r="K2" t="n">
         <v>479765.0378088634</v>
       </c>
-      <c r="K2" t="n">
-        <v>479765.0378088636</v>
-      </c>
       <c r="L2" t="n">
-        <v>479765.0378088627</v>
+        <v>479765.0378088628</v>
       </c>
       <c r="M2" t="n">
+        <v>479765.0378088641</v>
+      </c>
+      <c r="N2" t="n">
+        <v>479765.0378088643</v>
+      </c>
+      <c r="O2" t="n">
         <v>479765.0378088642</v>
       </c>
-      <c r="N2" t="n">
-        <v>479765.0378088642</v>
-      </c>
-      <c r="O2" t="n">
-        <v>479765.0378088639</v>
-      </c>
       <c r="P2" t="n">
-        <v>479765.037808864</v>
+        <v>479765.0378088641</v>
       </c>
     </row>
     <row r="3">
@@ -26375,25 +26375,25 @@
         <v>356901.2563746109</v>
       </c>
       <c r="F3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>72236.38115909403</v>
+        <v>72236.38115909419</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120312.4428466251</v>
+        <v>120312.442846625</v>
       </c>
       <c r="K3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72236.38115909403</v>
+        <v>72236.38115909419</v>
       </c>
       <c r="M3" t="n">
         <v>103055.0537486387</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8860.779650763789</v>
+        <v>8860.779650763596</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26430,10 +26430,10 @@
         <v>292825.008417923</v>
       </c>
       <c r="G4" t="n">
-        <v>348860.117600111</v>
+        <v>348860.1176001111</v>
       </c>
       <c r="H4" t="n">
-        <v>348860.1176001109</v>
+        <v>348860.1176001111</v>
       </c>
       <c r="I4" t="n">
         <v>348860.117600111</v>
@@ -26448,16 +26448,16 @@
         <v>338193.2769757742</v>
       </c>
       <c r="M4" t="n">
-        <v>339446.9901772324</v>
+        <v>339446.9901772323</v>
       </c>
       <c r="N4" t="n">
+        <v>339446.9901772322</v>
+      </c>
+      <c r="O4" t="n">
+        <v>339446.9901772322</v>
+      </c>
+      <c r="P4" t="n">
         <v>339446.9901772323</v>
-      </c>
-      <c r="O4" t="n">
-        <v>339446.9901772323</v>
-      </c>
-      <c r="P4" t="n">
-        <v>339446.9901772322</v>
       </c>
     </row>
     <row r="5">
@@ -26482,16 +26482,16 @@
         <v>41524.90096894783</v>
       </c>
       <c r="G5" t="n">
-        <v>49115.95137852768</v>
+        <v>49115.95137852769</v>
       </c>
       <c r="H5" t="n">
-        <v>49115.95137852767</v>
+        <v>49115.95137852769</v>
       </c>
       <c r="I5" t="n">
-        <v>49115.95137852768</v>
+        <v>49115.95137852766</v>
       </c>
       <c r="J5" t="n">
-        <v>65082.64625607466</v>
+        <v>65082.64625607465</v>
       </c>
       <c r="K5" t="n">
         <v>65082.64625607467</v>
@@ -26503,13 +26503,13 @@
         <v>55600.50041746883</v>
       </c>
       <c r="N5" t="n">
-        <v>55600.50041746882</v>
+        <v>55600.50041746883</v>
       </c>
       <c r="O5" t="n">
         <v>55600.50041746882</v>
       </c>
       <c r="P5" t="n">
-        <v>55600.50041746882</v>
+        <v>55600.50041746883</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29826.14124598259</v>
+        <v>29821.77267351516</v>
       </c>
       <c r="C6" t="n">
-        <v>29826.14124598241</v>
+        <v>29821.77267351522</v>
       </c>
       <c r="D6" t="n">
-        <v>29826.14124598253</v>
+        <v>29821.77267351516</v>
       </c>
       <c r="E6" t="n">
-        <v>-272946.9169366272</v>
+        <v>-273192.7600925635</v>
       </c>
       <c r="F6" t="n">
-        <v>83954.33943798355</v>
+        <v>83708.4962820474</v>
       </c>
       <c r="G6" t="n">
-        <v>9552.587671130546</v>
+        <v>9552.587671130415</v>
       </c>
       <c r="H6" t="n">
-        <v>81788.96883022471</v>
+        <v>81788.96883022464</v>
       </c>
       <c r="I6" t="n">
-        <v>81788.96883022471</v>
+        <v>81788.9688302249</v>
       </c>
       <c r="J6" t="n">
-        <v>-43823.32826961041</v>
+        <v>-43823.32826961023</v>
       </c>
       <c r="K6" t="n">
-        <v>76489.11457701468</v>
+        <v>76489.11457701451</v>
       </c>
       <c r="L6" t="n">
-        <v>4252.733417919764</v>
+        <v>4252.733417919706</v>
       </c>
       <c r="M6" t="n">
-        <v>-18337.50653447565</v>
+        <v>-18337.50653447571</v>
       </c>
       <c r="N6" t="n">
-        <v>84717.54721416307</v>
+        <v>84717.54721416318</v>
       </c>
       <c r="O6" t="n">
-        <v>75856.767563399</v>
+        <v>75856.76756339952</v>
       </c>
       <c r="P6" t="n">
-        <v>84717.54721416296</v>
+        <v>84717.54721416294</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G2" t="n">
         <v>219.5135474428162</v>
       </c>
       <c r="H2" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="I2" t="n">
         <v>219.5135474428162</v>
@@ -26716,13 +26716,13 @@
         <v>101.3714510123223</v>
       </c>
       <c r="M2" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="N2" t="n">
         <v>166.0499518471044</v>
       </c>
       <c r="O2" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="P2" t="n">
         <v>166.0499518471044</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>451.2928153283071</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="F4" t="n">
-        <v>451.2928153283071</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="G4" t="n">
-        <v>451.2928153283071</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="H4" t="n">
-        <v>451.2928153283071</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="I4" t="n">
-        <v>451.2928153283071</v>
+        <v>451.292815328307</v>
       </c>
       <c r="J4" t="n">
         <v>877.2596374066322</v>
@@ -26820,16 +26820,16 @@
         <v>877.2596374066325</v>
       </c>
       <c r="M4" t="n">
-        <v>631.8714346881269</v>
+        <v>631.871434688127</v>
       </c>
       <c r="N4" t="n">
-        <v>631.8714346881269</v>
+        <v>631.871434688127</v>
       </c>
       <c r="O4" t="n">
-        <v>631.8714346881269</v>
+        <v>631.871434688127</v>
       </c>
       <c r="P4" t="n">
-        <v>631.8714346881269</v>
+        <v>631.871434688127</v>
       </c>
     </row>
   </sheetData>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>90.29547644886753</v>
+        <v>90.29547644886773</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>2.842170943040401e-14</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.07597456345458</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>90.29547644886773</v>
+      </c>
+      <c r="M2" t="n">
+        <v>64.67850083478208</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11.07597456345449</v>
+      </c>
+      <c r="P2" t="n">
         <v>8.526512829121202e-14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.07597456345468</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>90.29547644886755</v>
-      </c>
-      <c r="M2" t="n">
-        <v>64.67850083478213</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>11.07597456345474</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>451.2928153283071</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>425.9668220783252</v>
+        <v>425.9668220783253</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>205.9046126098016</v>
+        <v>205.904612609802</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.29547644886753</v>
+        <v>90.29547644886773</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07597456345468</v>
+        <v>11.07597456345458</v>
       </c>
       <c r="P2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>451.2928153283071</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="C11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="D11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="E11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="H11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="I11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>52.39645933782047</v>
       </c>
       <c r="S11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="T11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="V11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="W11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="X11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="Y11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
     </row>
     <row r="12">
@@ -28169,19 +28169,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>33.39550253257879</v>
       </c>
       <c r="D12" t="n">
-        <v>121.0768242776491</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="E12" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H12" t="n">
         <v>95.86716744632758</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.44188278383303</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>129.2180709939486</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>129.2180709939486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,34 +28245,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="C13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="D13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="E13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="H13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="I13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="J13" t="n">
-        <v>129.2180709939486</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K13" t="n">
-        <v>97.94315950317177</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28281,40 +28281,40 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="Q13" t="n">
-        <v>129.2180709939486</v>
+        <v>57.33576918556393</v>
       </c>
       <c r="R13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="S13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="T13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="U13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="V13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="W13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="X13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="C14" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="D14" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="E14" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F14" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G14" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="H14" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="I14" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>52.39645933782047</v>
       </c>
       <c r="S14" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="T14" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="V14" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="W14" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="X14" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="Y14" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>129.2180709939486</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>88.05005458946567</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="U15" t="n">
-        <v>54.69915104184506</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>129.2180709939486</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>129.2180709939486</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>129.2180709939486</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>129.2180709939486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,40 +28482,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="C16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="D16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="E16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="H16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="I16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="J16" t="n">
-        <v>129.2180709939486</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>57.33576918556409</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="M16" t="n">
-        <v>97.94315950317082</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28527,31 +28527,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="R16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="S16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="T16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="U16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="V16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="W16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="X16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
     </row>
     <row r="17">
@@ -28643,13 +28643,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>39.44188278383303</v>
       </c>
       <c r="S18" t="n">
-        <v>123.5128288432803</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>90.68551536368876</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9639418688503</v>
       </c>
       <c r="H19" t="n">
         <v>155.4085199241127</v>
@@ -28770,22 +28770,22 @@
         <v>136.0388409905457</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>206.9263923888292</v>
       </c>
       <c r="T19" t="n">
         <v>219.5135474428162</v>
       </c>
       <c r="U19" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>219.5135474428162</v>
       </c>
       <c r="X19" t="n">
-        <v>35.08105269208855</v>
+        <v>100.2178133200414</v>
       </c>
       <c r="Y19" t="n">
         <v>219.5135474428162</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="C20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="D20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="E20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="F20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="G20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="H20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="I20" t="n">
         <v>148.1749764353493</v>
@@ -28852,22 +28852,22 @@
         <v>171.8127151144388</v>
       </c>
       <c r="T20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="U20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="V20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="W20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="X20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="Y20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
     </row>
     <row r="21">
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>37.03309207864731</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28925,16 +28925,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.44188278383303</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.364587523205</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>185.5164475248238</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>124.1303920472976</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.72388763009911</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28974,7 +28974,7 @@
         <v>166.9639418688503</v>
       </c>
       <c r="H22" t="n">
-        <v>155.4085199241127</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>134.7433458784038</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>136.0388409905457</v>
       </c>
       <c r="S22" t="n">
-        <v>206.9263923888292</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="U22" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="V22" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="W22" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="X22" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.5135474428161</v>
+        <v>205.2454457448871</v>
       </c>
     </row>
     <row r="23">
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29126,16 +29126,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>114.2217113269004</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H24" t="n">
         <v>95.86716744632758</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,13 +29165,13 @@
         <v>39.44188278383303</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>50.72679768256393</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R25" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S25" t="n">
-        <v>103.4577348330272</v>
+        <v>206.9263923888292</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="V25" t="n">
         <v>219.5135474428162</v>
       </c>
       <c r="W25" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.5135474428162</v>
+        <v>100.2178133200414</v>
       </c>
     </row>
     <row r="26">
@@ -29299,13 +29299,13 @@
         <v>101.3714510123223</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="L26" t="n">
         <v>101.3714510123223</v>
       </c>
       <c r="M26" t="n">
-        <v>56.34270386546848</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="N26" t="n">
         <v>101.3714510123223</v>
@@ -29317,10 +29317,10 @@
         <v>101.3714510123223</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.3714510123223</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>101.3714510123223</v>
+        <v>56.34270386546854</v>
       </c>
       <c r="S26" t="n">
         <v>101.3714510123223</v>
@@ -29542,16 +29542,16 @@
         <v>101.3714510123223</v>
       </c>
       <c r="M29" t="n">
-        <v>101.3714510123223</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>101.3714510123223</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="P29" t="n">
-        <v>56.34270386546888</v>
+        <v>56.34270386546933</v>
       </c>
       <c r="Q29" t="n">
         <v>101.3714510123223</v>
@@ -29770,7 +29770,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="J32" t="n">
-        <v>56.34270386546945</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="K32" t="n">
         <v>101.3714510123223</v>
@@ -29788,7 +29788,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="P32" t="n">
-        <v>101.3714510123223</v>
+        <v>56.34270386546933</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="O34" t="n">
-        <v>101.3714510123221</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="P34" t="n">
         <v>101.3714510123223</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="C35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="E35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="F35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="G35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="I35" t="n">
         <v>148.1749764353493</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>52.39645933782047</v>
+        <v>52.39645933782046</v>
       </c>
       <c r="S35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="T35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="U35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="V35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="W35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="X35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="C37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,13 +30156,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4092705680781</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H37" t="n">
         <v>155.4085199241127</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>122.5821940011058</v>
       </c>
       <c r="J37" t="n">
         <v>40.60739031761008</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R37" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="T37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="U37" t="n">
-        <v>166.0499518471045</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="W37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="X37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="Y37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>52.39645933782047</v>
+        <v>52.39645933782046</v>
       </c>
       <c r="S38" t="n">
         <v>166.0499518471044</v>
@@ -30353,7 +30353,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30390,7 +30390,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>166.0499518471044</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>3.665924689675348</v>
       </c>
       <c r="R40" t="n">
         <v>136.0388409905457</v>
@@ -30447,7 +30447,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.6217731141558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="C41" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="D41" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="E41" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="F41" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="G41" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="H41" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="I41" t="n">
         <v>148.1749764353493</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>52.39645933782047</v>
+        <v>52.39645933782046</v>
       </c>
       <c r="S41" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="T41" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="U41" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="V41" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="W41" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="X41" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="C43" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>143.2473680468142</v>
+        <v>143.2473680468158</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>136.0388409905457</v>
       </c>
       <c r="S43" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="T43" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="U43" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="V43" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="W43" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="X43" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="Y43" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>52.39645933782047</v>
+        <v>52.39645933782046</v>
       </c>
       <c r="S44" t="n">
         <v>166.0499518471044</v>
@@ -30864,7 +30864,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>29.17921158466146</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>166.0499518471044</v>
@@ -30876,7 +30876,7 @@
         <v>134.7433458784038</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,16 +30897,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R46" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S46" t="n">
-        <v>166.0499518471044</v>
+        <v>153.8887999698068</v>
       </c>
       <c r="T46" t="n">
-        <v>166.0499518471044</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>166.0499518471044</v>
@@ -33409,22 +33409,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H32" t="n">
-        <v>6.086985755286759</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I32" t="n">
         <v>22.91405036794268</v>
       </c>
       <c r="J32" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K32" t="n">
-        <v>75.60477620105539</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L32" t="n">
-        <v>93.79441030903608</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M32" t="n">
         <v>104.3643537168799</v>
@@ -33433,25 +33433,25 @@
         <v>106.0530780695916</v>
       </c>
       <c r="O32" t="n">
-        <v>100.1429143098813</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P32" t="n">
-        <v>85.46966047527698</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.18415554558509</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R32" t="n">
         <v>37.33544430128472</v>
       </c>
       <c r="S32" t="n">
-        <v>13.54397050151076</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T32" t="n">
-        <v>2.601809363482757</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,7 +33491,7 @@
         <v>0.3180104480456982</v>
       </c>
       <c r="H33" t="n">
-        <v>3.071311432441349</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I33" t="n">
         <v>10.94904393490672</v>
@@ -33503,28 +33503,28 @@
         <v>51.35171344604593</v>
       </c>
       <c r="L33" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M33" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N33" t="n">
-        <v>82.70921736255201</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O33" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P33" t="n">
-        <v>60.72604775005968</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.5937547365</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R33" t="n">
         <v>19.74454343217064</v>
       </c>
       <c r="S33" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T33" t="n">
         <v>1.281805270850862</v>
@@ -33570,10 +33570,10 @@
         <v>0.2666092769782025</v>
       </c>
       <c r="H34" t="n">
-        <v>2.370398844406202</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I34" t="n">
-        <v>8.017668074944492</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J34" t="n">
         <v>18.84927588235892</v>
@@ -33582,7 +33582,7 @@
         <v>30.97515054346752</v>
       </c>
       <c r="L34" t="n">
-        <v>39.63752832455931</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M34" t="n">
         <v>41.79221602668314</v>
@@ -33591,10 +33591,10 @@
         <v>40.79849053976442</v>
       </c>
       <c r="O34" t="n">
-        <v>37.68400944051903</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P34" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q34" t="n">
         <v>22.32489136587476</v>
@@ -33603,13 +33603,13 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S34" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T34" t="n">
         <v>1.139148728906865</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01454232419881106</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,22 +33646,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H35" t="n">
-        <v>6.086985755286759</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I35" t="n">
         <v>22.91405036794268</v>
       </c>
       <c r="J35" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K35" t="n">
-        <v>75.60477620105539</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L35" t="n">
-        <v>93.79441030903608</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M35" t="n">
         <v>104.3643537168799</v>
@@ -33670,25 +33670,25 @@
         <v>106.0530780695916</v>
       </c>
       <c r="O35" t="n">
-        <v>100.1429143098813</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P35" t="n">
-        <v>85.46966047527698</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.18415554558509</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R35" t="n">
         <v>37.33544430128472</v>
       </c>
       <c r="S35" t="n">
-        <v>13.54397050151076</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T35" t="n">
-        <v>2.601809363482757</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,7 +33728,7 @@
         <v>0.3180104480456982</v>
       </c>
       <c r="H36" t="n">
-        <v>3.071311432441349</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I36" t="n">
         <v>10.94904393490672</v>
@@ -33740,28 +33740,28 @@
         <v>51.35171344604593</v>
       </c>
       <c r="L36" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M36" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N36" t="n">
-        <v>82.70921736255201</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O36" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P36" t="n">
-        <v>60.72604775005968</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.5937547365</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R36" t="n">
         <v>19.74454343217064</v>
       </c>
       <c r="S36" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T36" t="n">
         <v>1.281805270850862</v>
@@ -33807,10 +33807,10 @@
         <v>0.2666092769782025</v>
       </c>
       <c r="H37" t="n">
-        <v>2.370398844406202</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I37" t="n">
-        <v>8.017668074944492</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J37" t="n">
         <v>18.84927588235892</v>
@@ -33819,7 +33819,7 @@
         <v>30.97515054346752</v>
       </c>
       <c r="L37" t="n">
-        <v>39.63752832455931</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M37" t="n">
         <v>41.79221602668314</v>
@@ -33828,10 +33828,10 @@
         <v>40.79849053976442</v>
       </c>
       <c r="O37" t="n">
-        <v>37.68400944051903</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P37" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q37" t="n">
         <v>22.32489136587476</v>
@@ -33840,13 +33840,13 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S37" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T37" t="n">
         <v>1.139148728906865</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01454232419881106</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,22 +33883,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H38" t="n">
-        <v>6.086985755286759</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I38" t="n">
         <v>22.91405036794268</v>
       </c>
       <c r="J38" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K38" t="n">
-        <v>75.60477620105539</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L38" t="n">
-        <v>93.79441030903608</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M38" t="n">
         <v>104.3643537168799</v>
@@ -33907,25 +33907,25 @@
         <v>106.0530780695916</v>
       </c>
       <c r="O38" t="n">
-        <v>100.1429143098813</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P38" t="n">
-        <v>85.46966047527698</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.18415554558509</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R38" t="n">
         <v>37.33544430128472</v>
       </c>
       <c r="S38" t="n">
-        <v>13.54397050151076</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T38" t="n">
-        <v>2.601809363482757</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,7 +33965,7 @@
         <v>0.3180104480456982</v>
       </c>
       <c r="H39" t="n">
-        <v>3.071311432441349</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I39" t="n">
         <v>10.94904393490672</v>
@@ -33977,28 +33977,28 @@
         <v>51.35171344604593</v>
       </c>
       <c r="L39" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M39" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N39" t="n">
-        <v>82.70921736255201</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O39" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P39" t="n">
-        <v>60.72604775005968</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.5937547365</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R39" t="n">
         <v>19.74454343217064</v>
       </c>
       <c r="S39" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T39" t="n">
         <v>1.281805270850862</v>
@@ -34044,10 +34044,10 @@
         <v>0.2666092769782025</v>
       </c>
       <c r="H40" t="n">
-        <v>2.370398844406202</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I40" t="n">
-        <v>8.017668074944492</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J40" t="n">
         <v>18.84927588235892</v>
@@ -34056,7 +34056,7 @@
         <v>30.97515054346752</v>
       </c>
       <c r="L40" t="n">
-        <v>39.63752832455931</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M40" t="n">
         <v>41.79221602668314</v>
@@ -34065,10 +34065,10 @@
         <v>40.79849053976442</v>
       </c>
       <c r="O40" t="n">
-        <v>37.68400944051903</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P40" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q40" t="n">
         <v>22.32489136587476</v>
@@ -34077,13 +34077,13 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S40" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T40" t="n">
         <v>1.139148728906865</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01454232419881106</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,22 +34120,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H41" t="n">
-        <v>6.086985755286759</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I41" t="n">
         <v>22.91405036794268</v>
       </c>
       <c r="J41" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K41" t="n">
-        <v>75.60477620105539</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L41" t="n">
-        <v>93.79441030903608</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M41" t="n">
         <v>104.3643537168799</v>
@@ -34144,25 +34144,25 @@
         <v>106.0530780695916</v>
       </c>
       <c r="O41" t="n">
-        <v>100.1429143098813</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P41" t="n">
-        <v>85.46966047527698</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.18415554558509</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R41" t="n">
         <v>37.33544430128472</v>
       </c>
       <c r="S41" t="n">
-        <v>13.54397050151076</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T41" t="n">
-        <v>2.601809363482757</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,7 +34202,7 @@
         <v>0.3180104480456982</v>
       </c>
       <c r="H42" t="n">
-        <v>3.071311432441349</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I42" t="n">
         <v>10.94904393490672</v>
@@ -34214,28 +34214,28 @@
         <v>51.35171344604593</v>
       </c>
       <c r="L42" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M42" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N42" t="n">
-        <v>82.70921736255201</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O42" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P42" t="n">
-        <v>60.72604775005968</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.5937547365</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R42" t="n">
         <v>19.74454343217064</v>
       </c>
       <c r="S42" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T42" t="n">
         <v>1.281805270850862</v>
@@ -34281,10 +34281,10 @@
         <v>0.2666092769782025</v>
       </c>
       <c r="H43" t="n">
-        <v>2.370398844406202</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I43" t="n">
-        <v>8.017668074944492</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J43" t="n">
         <v>18.84927588235892</v>
@@ -34293,7 +34293,7 @@
         <v>30.97515054346752</v>
       </c>
       <c r="L43" t="n">
-        <v>39.63752832455931</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M43" t="n">
         <v>41.79221602668314</v>
@@ -34302,10 +34302,10 @@
         <v>40.79849053976442</v>
       </c>
       <c r="O43" t="n">
-        <v>37.68400944051903</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P43" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q43" t="n">
         <v>22.32489136587476</v>
@@ -34314,13 +34314,13 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S43" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T43" t="n">
         <v>1.139148728906865</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01454232419881106</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,22 +34357,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H44" t="n">
-        <v>6.086985755286759</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I44" t="n">
         <v>22.91405036794268</v>
       </c>
       <c r="J44" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K44" t="n">
-        <v>75.60477620105539</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L44" t="n">
-        <v>93.79441030903608</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M44" t="n">
         <v>104.3643537168799</v>
@@ -34381,25 +34381,25 @@
         <v>106.0530780695916</v>
       </c>
       <c r="O44" t="n">
-        <v>100.1429143098813</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P44" t="n">
-        <v>85.46966047527698</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.18415554558509</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R44" t="n">
         <v>37.33544430128472</v>
       </c>
       <c r="S44" t="n">
-        <v>13.54397050151076</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T44" t="n">
-        <v>2.601809363482757</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,7 +34439,7 @@
         <v>0.3180104480456982</v>
       </c>
       <c r="H45" t="n">
-        <v>3.071311432441349</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I45" t="n">
         <v>10.94904393490672</v>
@@ -34451,28 +34451,28 @@
         <v>51.35171344604593</v>
       </c>
       <c r="L45" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M45" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N45" t="n">
-        <v>82.70921736255201</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O45" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P45" t="n">
-        <v>60.72604775005968</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.5937547365</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R45" t="n">
         <v>19.74454343217064</v>
       </c>
       <c r="S45" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T45" t="n">
         <v>1.281805270850862</v>
@@ -34518,10 +34518,10 @@
         <v>0.2666092769782025</v>
       </c>
       <c r="H46" t="n">
-        <v>2.370398844406202</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I46" t="n">
-        <v>8.017668074944492</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J46" t="n">
         <v>18.84927588235892</v>
@@ -34530,7 +34530,7 @@
         <v>30.97515054346752</v>
       </c>
       <c r="L46" t="n">
-        <v>39.63752832455931</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M46" t="n">
         <v>41.79221602668314</v>
@@ -34539,10 +34539,10 @@
         <v>40.79849053976442</v>
       </c>
       <c r="O46" t="n">
-        <v>37.68400944051903</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P46" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q46" t="n">
         <v>22.32489136587476</v>
@@ -34551,13 +34551,13 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S46" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T46" t="n">
         <v>1.139148728906865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01454232419881106</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>123.1713345547912</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>318.1708085695228</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>283.4391640072513</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M11" t="n">
-        <v>451.2928153283071</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="N11" t="n">
-        <v>451.2928153283071</v>
+        <v>414.9491733513183</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q11" t="n">
         <v>159.570270380471</v>
@@ -35495,16 +35495,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>451.2928153283071</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="N12" t="n">
-        <v>451.2928153283071</v>
+        <v>144.4099964556218</v>
       </c>
       <c r="O12" t="n">
-        <v>451.2928153283071</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="P12" t="n">
-        <v>58.99062208514884</v>
+        <v>365.8734409578347</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.61068067633849</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>162.8619340311276</v>
+        <v>64.91877452795582</v>
       </c>
       <c r="L13" t="n">
         <v>141.260840850074</v>
@@ -35577,16 +35577,16 @@
         <v>160.9775757515334</v>
       </c>
       <c r="N13" t="n">
-        <v>160.4170175595628</v>
+        <v>289.6350885535113</v>
       </c>
       <c r="O13" t="n">
         <v>137.142238224044</v>
       </c>
       <c r="P13" t="n">
-        <v>95.84970920848468</v>
+        <v>225.0677802024331</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.3909944269755</v>
+        <v>41.50869261859084</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>318.1708085695228</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>90.67932651499468</v>
+        <v>0.6217819131882137</v>
       </c>
       <c r="M14" t="n">
-        <v>451.2928153283071</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="N14" t="n">
-        <v>451.2928153283071</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>408.2283531713298</v>
       </c>
       <c r="P14" t="n">
         <v>315.9311720470479</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>245.8268089172203</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>438.5657312466048</v>
       </c>
       <c r="M15" t="n">
-        <v>451.2928153283071</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="N15" t="n">
-        <v>451.2928153283071</v>
+        <v>79.9124053075973</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>365.8734409578347</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>88.61068067633855</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>64.91877452795582</v>
+        <v>122.2545437135199</v>
       </c>
       <c r="L16" t="n">
-        <v>141.260840850074</v>
+        <v>270.4789118440224</v>
       </c>
       <c r="M16" t="n">
-        <v>258.9207352547042</v>
+        <v>160.9775757515334</v>
       </c>
       <c r="N16" t="n">
         <v>160.4170175595628</v>
@@ -35823,7 +35823,7 @@
         <v>95.84970920848468</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.3909944269755</v>
+        <v>113.3909944269754</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>123.1713345547912</v>
       </c>
       <c r="K17" t="n">
-        <v>318.1708085695228</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M17" t="n">
-        <v>10.57245411718077</v>
+        <v>43.11975600566833</v>
       </c>
       <c r="N17" t="n">
-        <v>451.2928153283071</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="O17" t="n">
         <v>408.2283531713298</v>
@@ -35902,7 +35902,7 @@
         <v>315.9311720470479</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.570270380471</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>90.90778770284894</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>438.5657312466048</v>
       </c>
       <c r="M18" t="n">
-        <v>451.2928153283071</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>354.8780585625829</v>
       </c>
       <c r="O18" t="n">
-        <v>331.2461832876926</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="P18" t="n">
-        <v>365.8734409578347</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M20" t="n">
-        <v>328.7432626867036</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>451.2928153283071</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="O20" t="n">
-        <v>408.2283531713298</v>
+        <v>291.7778387965273</v>
       </c>
       <c r="P20" t="n">
         <v>315.9311720470479</v>
@@ -36200,25 +36200,25 @@
         <v>90.90778770284894</v>
       </c>
       <c r="K21" t="n">
-        <v>283.1603523957315</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M21" t="n">
-        <v>451.2928153283071</v>
+        <v>154.9190212143718</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="O21" t="n">
-        <v>451.2928153283071</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="P21" t="n">
-        <v>365.8734409578347</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>144.4099964556212</v>
+        <v>199.9590373482113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,13 +36361,13 @@
         <v>318.1708085695228</v>
       </c>
       <c r="L23" t="n">
-        <v>157.9524157711837</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M23" t="n">
-        <v>451.2928153283071</v>
+        <v>451.292815328307</v>
       </c>
       <c r="N23" t="n">
-        <v>451.2928153283071</v>
+        <v>164.0514540379833</v>
       </c>
       <c r="O23" t="n">
         <v>408.2283531713298</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>90.90778770284894</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>283.1603523957315</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M24" t="n">
-        <v>395.7437744357168</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>451.292815328307</v>
       </c>
       <c r="O24" t="n">
-        <v>451.2928153283071</v>
+        <v>48.0858308919606</v>
       </c>
       <c r="P24" t="n">
         <v>365.8734409578347</v>
@@ -36595,13 +36595,13 @@
         <v>224.5427855671136</v>
       </c>
       <c r="K26" t="n">
-        <v>318.1708085695228</v>
+        <v>419.5422595818451</v>
       </c>
       <c r="L26" t="n">
         <v>546.5652280738293</v>
       </c>
       <c r="M26" t="n">
-        <v>557.9183366258716</v>
+        <v>602.9470837727255</v>
       </c>
       <c r="N26" t="n">
         <v>589.5774166452632</v>
@@ -36613,10 +36613,10 @@
         <v>417.3026230593703</v>
       </c>
       <c r="Q26" t="n">
-        <v>260.9417213927933</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R26" t="n">
-        <v>48.97499167450186</v>
+        <v>3.946244527648073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>90.90778770284894</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>283.1603523957315</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>438.5657312466048</v>
@@ -36683,7 +36683,7 @@
         <v>570.5092749782723</v>
       </c>
       <c r="N27" t="n">
-        <v>81.15561336752914</v>
+        <v>599.1391629414632</v>
       </c>
       <c r="O27" t="n">
         <v>471.8243417781767</v>
@@ -36692,7 +36692,7 @@
         <v>365.8734409578347</v>
       </c>
       <c r="Q27" t="n">
-        <v>199.9590373482113</v>
+        <v>56.04362787285807</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.76406069471224</v>
+        <v>60.76406069471223</v>
       </c>
       <c r="K28" t="n">
         <v>166.2902255402781</v>
@@ -36771,7 +36771,7 @@
         <v>197.221160220807</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.54437444534923</v>
+        <v>85.54437444534922</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,16 +36838,16 @@
         <v>546.5652280738293</v>
       </c>
       <c r="M29" t="n">
-        <v>602.9470837727255</v>
+        <v>501.5756327604031</v>
       </c>
       <c r="N29" t="n">
         <v>589.5774166452632</v>
       </c>
       <c r="O29" t="n">
-        <v>408.2283531713298</v>
+        <v>509.5998041836521</v>
       </c>
       <c r="P29" t="n">
-        <v>372.2738759125168</v>
+        <v>372.2738759125173</v>
       </c>
       <c r="Q29" t="n">
         <v>260.9417213927933</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>90.90778770284895</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>283.1603523957315</v>
       </c>
       <c r="L30" t="n">
-        <v>438.5657312466048</v>
+        <v>211.4490067237309</v>
       </c>
       <c r="M30" t="n">
-        <v>52.52572540433802</v>
+        <v>570.5092749782723</v>
       </c>
       <c r="N30" t="n">
         <v>599.1391629414633</v>
@@ -36929,7 +36929,7 @@
         <v>365.8734409578347</v>
       </c>
       <c r="Q30" t="n">
-        <v>199.9590373482114</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>179.5140384202607</v>
+        <v>224.5427855671136</v>
       </c>
       <c r="K32" t="n">
         <v>419.5422595818452</v>
@@ -37084,7 +37084,7 @@
         <v>509.5998041836521</v>
       </c>
       <c r="P32" t="n">
-        <v>417.3026230593703</v>
+        <v>372.2738759125173</v>
       </c>
       <c r="Q32" t="n">
         <v>159.570270380471</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>283.1603523957315</v>
+        <v>56.04362787285756</v>
       </c>
       <c r="L33" t="n">
-        <v>11.48996937551958</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M33" t="n">
         <v>570.5092749782723</v>
       </c>
       <c r="N33" t="n">
-        <v>599.1391629414632</v>
+        <v>599.1391629414633</v>
       </c>
       <c r="O33" t="n">
         <v>471.8243417781767</v>
@@ -37166,7 +37166,7 @@
         <v>365.8734409578347</v>
       </c>
       <c r="Q33" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.76406069471226</v>
+        <v>60.76406069471224</v>
       </c>
       <c r="K34" t="n">
-        <v>166.2902255402782</v>
+        <v>166.2902255402781</v>
       </c>
       <c r="L34" t="n">
         <v>242.6322918623963</v>
@@ -37239,13 +37239,13 @@
         <v>261.7884685718851</v>
       </c>
       <c r="O34" t="n">
-        <v>238.5136892363661</v>
+        <v>238.5136892363663</v>
       </c>
       <c r="P34" t="n">
         <v>197.221160220807</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.54437444534925</v>
+        <v>85.54437444534923</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,16 +37315,16 @@
         <v>501.5756327604031</v>
       </c>
       <c r="N35" t="n">
-        <v>488.2059656329408</v>
+        <v>488.2059656329409</v>
       </c>
       <c r="O35" t="n">
-        <v>273.3079533233172</v>
+        <v>408.2283531713298</v>
       </c>
       <c r="P35" t="n">
         <v>315.9311720470479</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.570270380471</v>
+        <v>24.64987053245851</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>90.90778770284894</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K36" t="n">
         <v>283.1603523957315</v>
@@ -37391,19 +37391,19 @@
         <v>438.5657312466048</v>
       </c>
       <c r="M36" t="n">
-        <v>52.52572540433825</v>
+        <v>570.5092749782723</v>
       </c>
       <c r="N36" t="n">
-        <v>599.1391629414632</v>
+        <v>599.1391629414633</v>
       </c>
       <c r="O36" t="n">
-        <v>471.8243417781767</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>365.8734409578347</v>
       </c>
       <c r="Q36" t="n">
-        <v>199.9590373482113</v>
+        <v>153.7998295524548</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>123.1713345547912</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>318.1708085695228</v>
@@ -37552,10 +37552,10 @@
         <v>501.5756327604031</v>
       </c>
       <c r="N38" t="n">
-        <v>230.1142312301367</v>
+        <v>488.2059656329409</v>
       </c>
       <c r="O38" t="n">
-        <v>408.2283531713298</v>
+        <v>273.3079533233174</v>
       </c>
       <c r="P38" t="n">
         <v>315.9311720470479</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>90.90778770284894</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K39" t="n">
         <v>283.1603523957315</v>
@@ -37628,19 +37628,19 @@
         <v>438.5657312466048</v>
       </c>
       <c r="M39" t="n">
-        <v>418.3991663621729</v>
+        <v>570.5092749782723</v>
       </c>
       <c r="N39" t="n">
-        <v>599.1391629414632</v>
+        <v>81.1556133675296</v>
       </c>
       <c r="O39" t="n">
         <v>471.8243417781767</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>365.8734409578347</v>
       </c>
       <c r="Q39" t="n">
-        <v>199.9590373482113</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>183.2504087215098</v>
+        <v>183.2504087215103</v>
       </c>
       <c r="L41" t="n">
         <v>445.193777061507</v>
@@ -37789,7 +37789,7 @@
         <v>501.5756327604031</v>
       </c>
       <c r="N41" t="n">
-        <v>488.2059656329408</v>
+        <v>488.2059656329409</v>
       </c>
       <c r="O41" t="n">
         <v>408.2283531713298</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K42" t="n">
-        <v>283.1603523957315</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>438.5657312466048</v>
       </c>
       <c r="M42" t="n">
-        <v>343.3925504553987</v>
+        <v>570.5092749782723</v>
       </c>
       <c r="N42" t="n">
-        <v>599.1391629414632</v>
+        <v>599.1391629414633</v>
       </c>
       <c r="O42" t="n">
         <v>471.8243417781767</v>
       </c>
       <c r="P42" t="n">
-        <v>365.8734409578347</v>
+        <v>131.050243779632</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>123.1713345547912</v>
       </c>
       <c r="K44" t="n">
-        <v>60.07907416671861</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L44" t="n">
-        <v>445.193777061507</v>
+        <v>187.1020426587033</v>
       </c>
       <c r="M44" t="n">
         <v>501.5756327604031</v>
       </c>
       <c r="N44" t="n">
-        <v>488.2059656329408</v>
+        <v>488.2059656329409</v>
       </c>
       <c r="O44" t="n">
         <v>408.2283531713298</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>90.90778770284894</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>283.1603523957315</v>
+        <v>56.04362787285809</v>
       </c>
       <c r="L45" t="n">
         <v>438.5657312466048</v>
@@ -38105,16 +38105,16 @@
         <v>570.5092749782723</v>
       </c>
       <c r="N45" t="n">
-        <v>447.0290543253639</v>
+        <v>599.1391629414633</v>
       </c>
       <c r="O45" t="n">
         <v>471.8243417781767</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>365.8734409578347</v>
       </c>
       <c r="Q45" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
